--- a/Vivienda/28.5.xlsx
+++ b/Vivienda/28.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Vivienda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Vivienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501BF8F-7D2E-4F2D-A83D-0F2B4DCD9505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B18FAF-1BB0-4E03-B36F-BE89929EE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie area verde" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="148">
   <si>
     <t>Codreg</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>Áreas Verdes por Habitante</t>
+  </si>
+  <si>
+    <t>Unidad</t>
   </si>
 </sst>
 </file>
@@ -700,9 +703,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Area_Verde_Comuna" displayName="Area_Verde_Comuna" ref="A1:I235" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:I235" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Area_Verde_Comuna" displayName="Area_Verde_Comuna" ref="A1:J235" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:J235" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codprov" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codcom" dataDxfId="2"/>
@@ -711,6 +714,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ID Área Verde"/>
     <tableColumn id="9" xr3:uid="{7DD21640-9A70-4ECA-A129-1FBBC19816E1}" name="Superficie"/>
+    <tableColumn id="10" xr3:uid="{11BE39B2-C3F0-4404-8F0A-190A1A733045}" name="Unidad"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1002,19 +1006,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,11 +1044,14 @@
       <c r="H1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1068,11 +1076,11 @@
       <c r="H2" t="s">
         <v>144</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>399518.29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1097,11 +1105,11 @@
       <c r="H3" t="s">
         <v>144</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>341471.98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1126,11 +1134,11 @@
       <c r="H4" t="s">
         <v>144</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>802305.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1155,11 +1163,11 @@
       <c r="H5" t="s">
         <v>144</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>657029.04</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1184,11 +1192,11 @@
       <c r="H6" t="s">
         <v>144</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>787470.56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1213,11 +1221,11 @@
       <c r="H7" t="s">
         <v>144</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>101013.43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1242,11 +1250,11 @@
       <c r="H8" t="s">
         <v>144</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>314081.48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1271,11 +1279,11 @@
       <c r="H9" t="s">
         <v>144</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2199850.4700000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -1300,11 +1308,11 @@
       <c r="H10" t="s">
         <v>144</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1033705.07</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -1329,11 +1337,11 @@
       <c r="H11" t="s">
         <v>144</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>422865.49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1358,11 +1366,11 @@
       <c r="H12" t="s">
         <v>144</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>368353.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -1387,11 +1395,11 @@
       <c r="H13" t="s">
         <v>144</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>60593.71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -1416,11 +1424,11 @@
       <c r="H14" t="s">
         <v>144</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>471381.98</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -1445,11 +1453,11 @@
       <c r="H15" t="s">
         <v>144</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>57817.61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -1474,11 +1482,11 @@
       <c r="H16" t="s">
         <v>144</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>132800.01999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -1503,11 +1511,11 @@
       <c r="H17" t="s">
         <v>144</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1333698.83</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -1532,11 +1540,11 @@
       <c r="H18" t="s">
         <v>144</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>302649.02</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -1561,11 +1569,11 @@
       <c r="H19" t="s">
         <v>144</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>71561.69</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -1590,11 +1598,11 @@
       <c r="H20" t="s">
         <v>144</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>240668.13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -1619,11 +1627,11 @@
       <c r="H21" t="s">
         <v>144</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>174934.58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -1648,11 +1656,11 @@
       <c r="H22" t="s">
         <v>144</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>66286.19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -1677,11 +1685,11 @@
       <c r="H23" t="s">
         <v>144</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>32707.63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -1706,11 +1714,11 @@
       <c r="H24" t="s">
         <v>144</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>537550.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -1735,11 +1743,11 @@
       <c r="H25" t="s">
         <v>144</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>49842.95</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -1764,11 +1772,11 @@
       <c r="H26" t="s">
         <v>144</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>84916.04</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -1793,11 +1801,11 @@
       <c r="H27" t="s">
         <v>144</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>274427.13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -1822,11 +1830,11 @@
       <c r="H28" t="s">
         <v>144</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>280696.98</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -1851,11 +1859,11 @@
       <c r="H29" t="s">
         <v>144</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>111154.79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -1880,11 +1888,11 @@
       <c r="H30" t="s">
         <v>144</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>16297.62</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -1909,11 +1917,11 @@
       <c r="H31" t="s">
         <v>144</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>246159</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>6</v>
       </c>
@@ -1938,11 +1946,11 @@
       <c r="H32" t="s">
         <v>144</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1983067.59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>6</v>
       </c>
@@ -1967,11 +1975,11 @@
       <c r="H33" t="s">
         <v>144</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>701035.62</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>6</v>
       </c>
@@ -1996,11 +2004,11 @@
       <c r="H34" t="s">
         <v>144</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>317878.37</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>6</v>
       </c>
@@ -2025,11 +2033,11 @@
       <c r="H35" t="s">
         <v>144</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>400382.68</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -2054,11 +2062,11 @@
       <c r="H36" t="s">
         <v>144</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1502047.96</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>7</v>
       </c>
@@ -2083,11 +2091,11 @@
       <c r="H37" t="s">
         <v>144</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>168864.84</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>7</v>
       </c>
@@ -2112,11 +2120,11 @@
       <c r="H38" t="s">
         <v>144</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>217214.32</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>7</v>
       </c>
@@ -2141,11 +2149,11 @@
       <c r="H39" t="s">
         <v>144</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1082884.8500000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>7</v>
       </c>
@@ -2170,11 +2178,11 @@
       <c r="H40" t="s">
         <v>144</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>27624.91</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -2199,11 +2207,11 @@
       <c r="H41" t="s">
         <v>144</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>68654.73</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>7</v>
       </c>
@@ -2228,11 +2236,11 @@
       <c r="H42" t="s">
         <v>144</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>327144.90999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>8</v>
       </c>
@@ -2257,11 +2265,11 @@
       <c r="H43" t="s">
         <v>144</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>1900908.03</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>8</v>
       </c>
@@ -2286,11 +2294,11 @@
       <c r="H44" t="s">
         <v>144</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>466878.89</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -2315,11 +2323,11 @@
       <c r="H45" t="s">
         <v>144</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>265294.52</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -2344,11 +2352,11 @@
       <c r="H46" t="s">
         <v>144</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>52626.49</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -2373,11 +2381,11 @@
       <c r="H47" t="s">
         <v>144</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>231206.66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>8</v>
       </c>
@@ -2402,11 +2410,11 @@
       <c r="H48" t="s">
         <v>144</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>120978.29</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>8</v>
       </c>
@@ -2431,11 +2439,11 @@
       <c r="H49" t="s">
         <v>144</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>986381.23</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>8</v>
       </c>
@@ -2460,11 +2468,11 @@
       <c r="H50" t="s">
         <v>144</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>66994.679999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>8</v>
       </c>
@@ -2489,11 +2497,11 @@
       <c r="H51" t="s">
         <v>144</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>637302.52</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>8</v>
       </c>
@@ -2518,11 +2526,11 @@
       <c r="H52" t="s">
         <v>144</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>100645.08</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>8</v>
       </c>
@@ -2547,11 +2555,11 @@
       <c r="H53" t="s">
         <v>144</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>381067.67</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>8</v>
       </c>
@@ -2576,11 +2584,11 @@
       <c r="H54" t="s">
         <v>144</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>803609.15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>8</v>
       </c>
@@ -2605,11 +2613,11 @@
       <c r="H55" t="s">
         <v>144</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>117945.45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>9</v>
       </c>
@@ -2634,11 +2642,11 @@
       <c r="H56" t="s">
         <v>144</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>2444565.79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>9</v>
       </c>
@@ -2663,11 +2671,11 @@
       <c r="H57" t="s">
         <v>144</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>299772.59999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>9</v>
       </c>
@@ -2692,11 +2700,11 @@
       <c r="H58" t="s">
         <v>144</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>454585.45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>9</v>
       </c>
@@ -2721,11 +2729,11 @@
       <c r="H59" t="s">
         <v>144</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>293523.21000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>10</v>
       </c>
@@ -2750,11 +2758,11 @@
       <c r="H60" t="s">
         <v>144</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1730377.49</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>10</v>
       </c>
@@ -2779,11 +2787,11 @@
       <c r="H61" t="s">
         <v>144</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>346876.09</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>10</v>
       </c>
@@ -2808,11 +2816,11 @@
       <c r="H62" t="s">
         <v>144</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>306319.44</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>10</v>
       </c>
@@ -2837,11 +2845,11 @@
       <c r="H63" t="s">
         <v>144</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>2270273.5699999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>11</v>
       </c>
@@ -2866,11 +2874,11 @@
       <c r="H64" t="s">
         <v>144</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>350452.47</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>12</v>
       </c>
@@ -2895,11 +2903,11 @@
       <c r="H65" t="s">
         <v>144</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1371814.6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>13</v>
       </c>
@@ -2924,11 +2932,11 @@
       <c r="H66" t="s">
         <v>144</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>1868007.66</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>13</v>
       </c>
@@ -2953,11 +2961,11 @@
       <c r="H67" t="s">
         <v>144</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1176964.6499999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>13</v>
       </c>
@@ -2982,11 +2990,11 @@
       <c r="H68" t="s">
         <v>144</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>786372.48</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>13</v>
       </c>
@@ -3011,11 +3019,11 @@
       <c r="H69" t="s">
         <v>144</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>417852</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>13</v>
       </c>
@@ -3040,11 +3048,11 @@
       <c r="H70" t="s">
         <v>144</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>329261.03999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>13</v>
       </c>
@@ -3069,11 +3077,11 @@
       <c r="H71" t="s">
         <v>144</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>533763.86</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>13</v>
       </c>
@@ -3098,11 +3106,11 @@
       <c r="H72" t="s">
         <v>144</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>1061523.43</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>13</v>
       </c>
@@ -3127,11 +3135,11 @@
       <c r="H73" t="s">
         <v>144</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>155440.97</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>13</v>
       </c>
@@ -3156,11 +3164,11 @@
       <c r="H74" t="s">
         <v>144</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>160366.5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>13</v>
       </c>
@@ -3185,11 +3193,11 @@
       <c r="H75" t="s">
         <v>144</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>1375949.93</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>13</v>
       </c>
@@ -3214,11 +3222,11 @@
       <c r="H76" t="s">
         <v>144</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>848111.12</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>13</v>
       </c>
@@ -3243,11 +3251,11 @@
       <c r="H77" t="s">
         <v>144</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>611122.67000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>13</v>
       </c>
@@ -3272,11 +3280,11 @@
       <c r="H78" t="s">
         <v>144</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>1296980.73</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>13</v>
       </c>
@@ -3301,11 +3309,11 @@
       <c r="H79" t="s">
         <v>144</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>1432747.4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>13</v>
       </c>
@@ -3330,11 +3338,11 @@
       <c r="H80" t="s">
         <v>144</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>1567804.34</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>13</v>
       </c>
@@ -3359,11 +3367,11 @@
       <c r="H81" t="s">
         <v>144</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>430503.44</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>13</v>
       </c>
@@ -3388,11 +3396,11 @@
       <c r="H82" t="s">
         <v>144</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>306691.98</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>13</v>
       </c>
@@ -3417,11 +3425,11 @@
       <c r="H83" t="s">
         <v>144</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>480763.06</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>13</v>
       </c>
@@ -3446,11 +3454,11 @@
       <c r="H84" t="s">
         <v>144</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>2847701.93</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -3475,11 +3483,11 @@
       <c r="H85" t="s">
         <v>144</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>508452.16</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>13</v>
       </c>
@@ -3504,11 +3512,11 @@
       <c r="H86" t="s">
         <v>144</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>530088.27</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>13</v>
       </c>
@@ -3533,11 +3541,11 @@
       <c r="H87" t="s">
         <v>144</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>1367424.45</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>13</v>
       </c>
@@ -3562,11 +3570,11 @@
       <c r="H88" t="s">
         <v>144</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>2121068.62</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>13</v>
       </c>
@@ -3591,11 +3599,11 @@
       <c r="H89" t="s">
         <v>144</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>1048199.86</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>13</v>
       </c>
@@ -3620,11 +3628,11 @@
       <c r="H90" t="s">
         <v>144</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>844303.87</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>13</v>
       </c>
@@ -3649,11 +3657,11 @@
       <c r="H91" t="s">
         <v>144</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>398697.29</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>13</v>
       </c>
@@ -3678,11 +3686,11 @@
       <c r="H92" t="s">
         <v>144</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>2927155.99</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>13</v>
       </c>
@@ -3707,11 +3715,11 @@
       <c r="H93" t="s">
         <v>144</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>672938.41</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>13</v>
       </c>
@@ -3736,11 +3744,11 @@
       <c r="H94" t="s">
         <v>144</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>462653.8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>13</v>
       </c>
@@ -3765,11 +3773,11 @@
       <c r="H95" t="s">
         <v>144</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>212503.55</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>13</v>
       </c>
@@ -3794,11 +3802,11 @@
       <c r="H96" t="s">
         <v>144</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>382813.02</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>13</v>
       </c>
@@ -3823,11 +3831,11 @@
       <c r="H97" t="s">
         <v>144</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>1592903.19</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>13</v>
       </c>
@@ -3852,11 +3860,11 @@
       <c r="H98" t="s">
         <v>144</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>2492680.23</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>13</v>
       </c>
@@ -3881,11 +3889,11 @@
       <c r="H99" t="s">
         <v>144</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>27703.81</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>13</v>
       </c>
@@ -3910,11 +3918,11 @@
       <c r="H100" t="s">
         <v>144</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>43960.58</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>13</v>
       </c>
@@ -3939,11 +3947,11 @@
       <c r="H101" t="s">
         <v>144</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>1115239.6200000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>13</v>
       </c>
@@ -3968,11 +3976,11 @@
       <c r="H102" t="s">
         <v>144</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>555319.97</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>13</v>
       </c>
@@ -3997,11 +4005,11 @@
       <c r="H103" t="s">
         <v>144</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>78790.45</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>13</v>
       </c>
@@ -4026,11 +4034,11 @@
       <c r="H104" t="s">
         <v>144</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>1202249.04</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>13</v>
       </c>
@@ -4055,11 +4063,11 @@
       <c r="H105" t="s">
         <v>144</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>603984.88</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>13</v>
       </c>
@@ -4084,11 +4092,11 @@
       <c r="H106" t="s">
         <v>144</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>29946.03</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>13</v>
       </c>
@@ -4113,11 +4121,11 @@
       <c r="H107" t="s">
         <v>144</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>173383.58</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>13</v>
       </c>
@@ -4142,11 +4150,11 @@
       <c r="H108" t="s">
         <v>144</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>364751.95</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>13</v>
       </c>
@@ -4171,11 +4179,11 @@
       <c r="H109" t="s">
         <v>144</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>409053.02</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>13</v>
       </c>
@@ -4200,11 +4208,11 @@
       <c r="H110" t="s">
         <v>144</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>108909.92</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>13</v>
       </c>
@@ -4229,11 +4237,11 @@
       <c r="H111" t="s">
         <v>144</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>72272.67</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>13</v>
       </c>
@@ -4258,11 +4266,11 @@
       <c r="H112" t="s">
         <v>144</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>393787.75</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>13</v>
       </c>
@@ -4287,11 +4295,11 @@
       <c r="H113" t="s">
         <v>144</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>393977.81</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>14</v>
       </c>
@@ -4316,11 +4324,11 @@
       <c r="H114" t="s">
         <v>144</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>1721843.52</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>15</v>
       </c>
@@ -4345,11 +4353,11 @@
       <c r="H115" t="s">
         <v>144</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>762277.38</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>16</v>
       </c>
@@ -4374,11 +4382,11 @@
       <c r="H116" t="s">
         <v>144</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>968510.59</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>16</v>
       </c>
@@ -4403,11 +4411,11 @@
       <c r="H117" t="s">
         <v>144</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>137886.44</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>16</v>
       </c>
@@ -4432,11 +4440,11 @@
       <c r="H118" t="s">
         <v>144</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>253154.7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4455,11 +4463,11 @@
       <c r="H119" t="s">
         <v>146</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>2.13</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4478,11 +4486,11 @@
       <c r="H120" t="s">
         <v>146</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>3.29</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4501,11 +4509,11 @@
       <c r="H121" t="s">
         <v>146</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>2.31</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4524,11 +4532,11 @@
       <c r="H122" t="s">
         <v>146</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>4.17</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4547,11 +4555,11 @@
       <c r="H123" t="s">
         <v>146</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>5.22</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4570,11 +4578,11 @@
       <c r="H124" t="s">
         <v>146</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>10.25</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4593,11 +4601,11 @@
       <c r="H125" t="s">
         <v>146</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>6.93</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4616,11 +4624,11 @@
       <c r="H126" t="s">
         <v>146</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>11.01</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4639,11 +4647,11 @@
       <c r="H127" t="s">
         <v>146</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4662,11 +4670,11 @@
       <c r="H128" t="s">
         <v>146</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>4.91</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4685,11 +4693,11 @@
       <c r="H129" t="s">
         <v>146</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>1.25</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4708,11 +4716,11 @@
       <c r="H130" t="s">
         <v>146</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>3.38</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4731,11 +4739,11 @@
       <c r="H131" t="s">
         <v>146</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>11.98</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4754,11 +4762,11 @@
       <c r="H132" t="s">
         <v>146</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>3.66</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4777,11 +4785,11 @@
       <c r="H133" t="s">
         <v>146</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4800,11 +4808,11 @@
       <c r="H134" t="s">
         <v>146</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>4.01</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4823,11 +4831,11 @@
       <c r="H135" t="s">
         <v>146</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>5.04</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4846,11 +4854,11 @@
       <c r="H136" t="s">
         <v>146</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>6.3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4869,11 +4877,11 @@
       <c r="H137" t="s">
         <v>146</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>3.11</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4892,11 +4900,11 @@
       <c r="H138" t="s">
         <v>146</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>3.6</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4915,11 +4923,11 @@
       <c r="H139" t="s">
         <v>146</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>5.65</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4938,11 +4946,11 @@
       <c r="H140" t="s">
         <v>146</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>1.69</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4961,11 +4969,11 @@
       <c r="H141" t="s">
         <v>146</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>6.23</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4984,11 +4992,11 @@
       <c r="H142" t="s">
         <v>146</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5007,11 +5015,11 @@
       <c r="H143" t="s">
         <v>146</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>13.81</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5030,11 +5038,11 @@
       <c r="H144" t="s">
         <v>146</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>3.96</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -5053,11 +5061,11 @@
       <c r="H145" t="s">
         <v>146</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>1.9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5076,11 +5084,11 @@
       <c r="H146" t="s">
         <v>146</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>2.85</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5099,11 +5107,11 @@
       <c r="H147" t="s">
         <v>146</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>1.36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5122,11 +5130,11 @@
       <c r="H148" t="s">
         <v>146</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>1.97</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5145,11 +5153,11 @@
       <c r="H149" t="s">
         <v>146</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>8.49</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5168,11 +5176,11 @@
       <c r="H150" t="s">
         <v>146</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>13.69</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5191,11 +5199,11 @@
       <c r="H151" t="s">
         <v>146</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>6.96</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5214,11 +5222,11 @@
       <c r="H152" t="s">
         <v>146</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>6.31</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5237,11 +5245,11 @@
       <c r="H153" t="s">
         <v>146</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>7.15</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5260,11 +5268,11 @@
       <c r="H154" t="s">
         <v>146</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>4.54</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5283,11 +5291,11 @@
       <c r="H155" t="s">
         <v>146</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>5.6</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5306,11 +5314,11 @@
       <c r="H156" t="s">
         <v>146</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5329,11 +5337,11 @@
       <c r="H157" t="s">
         <v>146</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5352,11 +5360,11 @@
       <c r="H158" t="s">
         <v>146</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>10.59</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5375,11 +5383,11 @@
       <c r="H159" t="s">
         <v>146</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>4.24</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5398,11 +5406,11 @@
       <c r="H160" t="s">
         <v>146</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>8.74</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5421,11 +5429,11 @@
       <c r="H161" t="s">
         <v>146</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5444,11 +5452,11 @@
       <c r="H162" t="s">
         <v>146</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>3.1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5467,11 +5475,11 @@
       <c r="H163" t="s">
         <v>146</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>2.52</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5490,11 +5498,11 @@
       <c r="H164" t="s">
         <v>146</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>5.34</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5513,11 +5521,11 @@
       <c r="H165" t="s">
         <v>146</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>2.61</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5536,11 +5544,11 @@
       <c r="H166" t="s">
         <v>146</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>7.5</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5559,11 +5567,11 @@
       <c r="H167" t="s">
         <v>146</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>7.02</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5582,11 +5590,11 @@
       <c r="H168" t="s">
         <v>146</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>4.26</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5605,11 +5613,11 @@
       <c r="H169" t="s">
         <v>146</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5628,11 +5636,11 @@
       <c r="H170" t="s">
         <v>146</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>4.2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5651,11 +5659,11 @@
       <c r="H171" t="s">
         <v>146</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>5.34</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5674,11 +5682,11 @@
       <c r="H172" t="s">
         <v>146</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>5.16</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5697,11 +5705,11 @@
       <c r="H173" t="s">
         <v>146</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>9.36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5720,11 +5728,11 @@
       <c r="H174" t="s">
         <v>146</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>6.61</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5743,11 +5751,11 @@
       <c r="H175" t="s">
         <v>146</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>12.61</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5766,11 +5774,11 @@
       <c r="H176" t="s">
         <v>146</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>6.04</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5789,11 +5797,11 @@
       <c r="H177" t="s">
         <v>146</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>7.92</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5812,11 +5820,11 @@
       <c r="H178" t="s">
         <v>146</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>10.8</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5835,11 +5843,11 @@
       <c r="H179" t="s">
         <v>146</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>9.17</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5858,11 +5866,11 @@
       <c r="H180" t="s">
         <v>146</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>15.37</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -5881,11 +5889,11 @@
       <c r="H181" t="s">
         <v>146</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>7.06</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5904,11 +5912,11 @@
       <c r="H182" t="s">
         <v>146</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>11.12</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -5927,11 +5935,11 @@
       <c r="H183" t="s">
         <v>146</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -5950,11 +5958,11 @@
       <c r="H184" t="s">
         <v>146</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>14.58</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -5973,11 +5981,11 @@
       <c r="H185" t="s">
         <v>146</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>5.94</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -5996,11 +6004,11 @@
       <c r="H186" t="s">
         <v>146</v>
       </c>
-      <c r="I186">
+      <c r="J186">
         <v>3.3</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6019,11 +6027,11 @@
       <c r="H187" t="s">
         <v>146</v>
       </c>
-      <c r="I187">
+      <c r="J187">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6042,11 +6050,11 @@
       <c r="H188" t="s">
         <v>146</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>3.79</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6065,11 +6073,11 @@
       <c r="H189" t="s">
         <v>146</v>
       </c>
-      <c r="I189">
+      <c r="J189">
         <v>10.78</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6088,11 +6096,11 @@
       <c r="H190" t="s">
         <v>146</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>1.55</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6111,11 +6119,11 @@
       <c r="H191" t="s">
         <v>146</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>1.78</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6134,11 +6142,11 @@
       <c r="H192" t="s">
         <v>146</v>
       </c>
-      <c r="I192">
+      <c r="J192">
         <v>3.76</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6157,11 +6165,11 @@
       <c r="H193" t="s">
         <v>146</v>
       </c>
-      <c r="I193">
+      <c r="J193">
         <v>7.29</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6180,11 +6188,11 @@
       <c r="H194" t="s">
         <v>146</v>
       </c>
-      <c r="I194">
+      <c r="J194">
         <v>3.47</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6203,11 +6211,11 @@
       <c r="H195" t="s">
         <v>146</v>
       </c>
-      <c r="I195">
+      <c r="J195">
         <v>13.99</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6226,11 +6234,11 @@
       <c r="H196" t="s">
         <v>146</v>
       </c>
-      <c r="I196">
+      <c r="J196">
         <v>4.87</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6249,11 +6257,11 @@
       <c r="H197" t="s">
         <v>146</v>
       </c>
-      <c r="I197">
+      <c r="J197">
         <v>15.21</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -6272,11 +6280,11 @@
       <c r="H198" t="s">
         <v>146</v>
       </c>
-      <c r="I198">
+      <c r="J198">
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -6295,11 +6303,11 @@
       <c r="H199" t="s">
         <v>146</v>
       </c>
-      <c r="I199">
+      <c r="J199">
         <v>3.2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6318,11 +6326,11 @@
       <c r="H200" t="s">
         <v>146</v>
       </c>
-      <c r="I200">
+      <c r="J200">
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -6341,11 +6349,11 @@
       <c r="H201" t="s">
         <v>146</v>
       </c>
-      <c r="I201">
+      <c r="J201">
         <v>5.5</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -6364,11 +6372,11 @@
       <c r="H202" t="s">
         <v>146</v>
       </c>
-      <c r="I202">
+      <c r="J202">
         <v>2.44</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -6387,11 +6395,11 @@
       <c r="H203" t="s">
         <v>146</v>
       </c>
-      <c r="I203">
+      <c r="J203">
         <v>5.25</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -6410,11 +6418,11 @@
       <c r="H204" t="s">
         <v>146</v>
       </c>
-      <c r="I204">
+      <c r="J204">
         <v>5.66</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -6433,11 +6441,11 @@
       <c r="H205" t="s">
         <v>146</v>
       </c>
-      <c r="I205">
+      <c r="J205">
         <v>14.94</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -6456,11 +6464,11 @@
       <c r="H206" t="s">
         <v>146</v>
       </c>
-      <c r="I206">
+      <c r="J206">
         <v>4.71</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -6479,11 +6487,11 @@
       <c r="H207" t="s">
         <v>146</v>
       </c>
-      <c r="I207">
+      <c r="J207">
         <v>4.03</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -6502,11 +6510,11 @@
       <c r="H208" t="s">
         <v>146</v>
       </c>
-      <c r="I208">
+      <c r="J208">
         <v>3.63</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -6525,11 +6533,11 @@
       <c r="H209" t="s">
         <v>146</v>
       </c>
-      <c r="I209">
+      <c r="J209">
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -6548,11 +6556,11 @@
       <c r="H210" t="s">
         <v>146</v>
       </c>
-      <c r="I210">
+      <c r="J210">
         <v>4.58</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -6571,11 +6579,11 @@
       <c r="H211" t="s">
         <v>146</v>
       </c>
-      <c r="I211">
+      <c r="J211">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -6594,11 +6602,11 @@
       <c r="H212" t="s">
         <v>146</v>
       </c>
-      <c r="I212">
+      <c r="J212">
         <v>1.97</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -6617,11 +6625,11 @@
       <c r="H213" t="s">
         <v>146</v>
       </c>
-      <c r="I213">
+      <c r="J213">
         <v>4.63</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -6640,11 +6648,11 @@
       <c r="H214" t="s">
         <v>146</v>
       </c>
-      <c r="I214">
+      <c r="J214">
         <v>18.670000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -6663,11 +6671,11 @@
       <c r="H215" t="s">
         <v>146</v>
       </c>
-      <c r="I215">
+      <c r="J215">
         <v>4.41</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -6686,11 +6694,11 @@
       <c r="H216" t="s">
         <v>146</v>
       </c>
-      <c r="I216">
+      <c r="J216">
         <v>2.41</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -6709,11 +6717,11 @@
       <c r="H217" t="s">
         <v>146</v>
       </c>
-      <c r="I217">
+      <c r="J217">
         <v>3.96</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -6732,11 +6740,11 @@
       <c r="H218" t="s">
         <v>146</v>
       </c>
-      <c r="I218">
+      <c r="J218">
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -6755,11 +6763,11 @@
       <c r="H219" t="s">
         <v>146</v>
       </c>
-      <c r="I219">
+      <c r="J219">
         <v>6.88</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -6778,11 +6786,11 @@
       <c r="H220" t="s">
         <v>146</v>
       </c>
-      <c r="I220">
+      <c r="J220">
         <v>6.03</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -6801,11 +6809,11 @@
       <c r="H221" t="s">
         <v>146</v>
       </c>
-      <c r="I221">
+      <c r="J221">
         <v>4.07</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -6824,11 +6832,11 @@
       <c r="H222" t="s">
         <v>146</v>
       </c>
-      <c r="I222">
+      <c r="J222">
         <v>7.34</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -6847,11 +6855,11 @@
       <c r="H223" t="s">
         <v>146</v>
       </c>
-      <c r="I223">
+      <c r="J223">
         <v>2.61</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -6870,11 +6878,11 @@
       <c r="H224" t="s">
         <v>146</v>
       </c>
-      <c r="I224">
+      <c r="J224">
         <v>3.74</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -6893,11 +6901,11 @@
       <c r="H225" t="s">
         <v>146</v>
       </c>
-      <c r="I225">
+      <c r="J225">
         <v>4.33</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -6916,11 +6924,11 @@
       <c r="H226" t="s">
         <v>146</v>
       </c>
-      <c r="I226">
+      <c r="J226">
         <v>6.94</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -6939,11 +6947,11 @@
       <c r="H227" t="s">
         <v>146</v>
       </c>
-      <c r="I227">
+      <c r="J227">
         <v>3.63</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -6962,11 +6970,11 @@
       <c r="H228" t="s">
         <v>146</v>
       </c>
-      <c r="I228">
+      <c r="J228">
         <v>2.69</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -6985,11 +6993,11 @@
       <c r="H229" t="s">
         <v>146</v>
       </c>
-      <c r="I229">
+      <c r="J229">
         <v>7.17</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -7008,11 +7016,11 @@
       <c r="H230" t="s">
         <v>146</v>
       </c>
-      <c r="I230">
+      <c r="J230">
         <v>4.75</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -7031,11 +7039,11 @@
       <c r="H231" t="s">
         <v>146</v>
       </c>
-      <c r="I231">
+      <c r="J231">
         <v>11.18</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -7054,11 +7062,11 @@
       <c r="H232" t="s">
         <v>146</v>
       </c>
-      <c r="I232">
+      <c r="J232">
         <v>3.75</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -7077,11 +7085,11 @@
       <c r="H233" t="s">
         <v>146</v>
       </c>
-      <c r="I233">
+      <c r="J233">
         <v>5.75</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -7100,11 +7108,11 @@
       <c r="H234" t="s">
         <v>146</v>
       </c>
-      <c r="I234">
+      <c r="J234">
         <v>5.04</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -7123,7 +7131,7 @@
       <c r="H235" t="s">
         <v>146</v>
       </c>
-      <c r="I235">
+      <c r="J235">
         <v>7.65</v>
       </c>
     </row>

--- a/Vivienda/28.5.xlsx
+++ b/Vivienda/28.5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,17 +16,26 @@
     <sheet name="Superficie area verde" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla auxliar" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="151">
   <si>
     <t>Codreg</t>
   </si>
@@ -46,12 +55,30 @@
     <t>Año</t>
   </si>
   <si>
+    <t>ID Área Verde</t>
+  </si>
+  <si>
+    <t>Superficie</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
     <t>Iquique</t>
   </si>
   <si>
     <t>Tarapacá</t>
   </si>
   <si>
+    <t>Áreas Verdes</t>
+  </si>
+  <si>
+    <t>Metros cuadrados/Habitante</t>
+  </si>
+  <si>
     <t>Alto Hospicio</t>
   </si>
   <si>
@@ -430,7 +457,7 @@
     <t>San Carlos</t>
   </si>
   <si>
-    <t>ID Área Verde</t>
+    <t>Áreas Verdes por Habitante</t>
   </si>
   <si>
     <t>ID</t>
@@ -457,26 +484,17 @@
     <t>http://siedu.ine.cl/descargar/INDICADORES.rar</t>
   </si>
   <si>
-    <t>Superficie</t>
-  </si>
-  <si>
-    <t>Áreas Verdes</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Áreas Verdes por Habitante</t>
-  </si>
-  <si>
-    <t>Unidad</t>
+    <t>Definicion</t>
+  </si>
+  <si>
+    <t>Este indicador mide la capacidad de carga de la oferta total de áreas verdes públicas (plazas y parques), determinando el acceso potencial de la población a la dotación de áreas verdes de una comuna. La capacidad de carga se mide como una relación entre las superficies de las plazas - parques, y la cantidad de habitantes de la comuna. Ello resulta en un indicador de metros cuadrados de áreas verdes públicas por habitante.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +516,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -513,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -552,16 +575,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,16 +698,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -703,7 +747,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Area_Verde_Comuna" displayName="Area_Verde_Comuna" ref="A1:J235" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Area_Verde_Comuna" displayName="Area_Verde_Comuna" ref="A1:J235" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
   <autoFilter ref="A1:J235" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg" dataDxfId="4"/>
@@ -740,6 +784,16 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Link "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5212AA5-4994-4059-99F7-77B9C24DE78A}" name="Tabla2" displayName="Tabla2" ref="A11:A12" totalsRowShown="0">
+  <autoFilter ref="A11:A12" xr:uid="{4AE79C53-B896-4ECB-97ED-0B1362886EE5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{73636A8C-7FF9-4368-A907-9C82E06A72C3}" name="Definicion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1009,17 +1063,17 @@
   <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="7" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,19 +1093,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1062,10 +1116,10 @@
         <v>1101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2018</v>
@@ -1074,13 +1128,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J2">
         <v>399518.29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1091,10 +1148,10 @@
         <v>1107</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2018</v>
@@ -1103,13 +1160,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J3">
         <v>341471.98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1120,10 +1180,10 @@
         <v>2101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>2018</v>
@@ -1132,13 +1192,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J4">
         <v>802305.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1149,10 +1212,10 @@
         <v>2201</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>2018</v>
@@ -1161,13 +1224,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J5">
         <v>657029.04</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1178,10 +1244,10 @@
         <v>3101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>2018</v>
@@ -1190,13 +1256,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J6">
         <v>787470.56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1207,10 +1276,10 @@
         <v>3103</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>2018</v>
@@ -1219,13 +1288,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J7">
         <v>101013.43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1236,10 +1308,10 @@
         <v>3301</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>2018</v>
@@ -1248,13 +1320,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J8">
         <v>314081.48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1265,10 +1340,10 @@
         <v>4101</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>2018</v>
@@ -1277,13 +1352,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J9">
         <v>2199850.4700000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -1294,10 +1372,10 @@
         <v>4102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>2018</v>
@@ -1306,13 +1384,16 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J10">
         <v>1033705.07</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -1323,10 +1404,10 @@
         <v>4301</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>2018</v>
@@ -1335,13 +1416,16 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J11">
         <v>422865.49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1352,10 +1436,10 @@
         <v>5101</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>2018</v>
@@ -1364,13 +1448,16 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J12">
         <v>368353.95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -1381,10 +1468,10 @@
         <v>5102</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>2018</v>
@@ -1393,13 +1480,16 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J13">
         <v>60593.71</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -1410,10 +1500,10 @@
         <v>5103</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>2018</v>
@@ -1422,13 +1512,16 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J14">
         <v>471381.98</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -1439,10 +1532,10 @@
         <v>5105</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>2018</v>
@@ -1451,13 +1544,16 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J15">
         <v>57817.61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -1468,10 +1564,10 @@
         <v>5107</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>2018</v>
@@ -1480,13 +1576,16 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J16">
         <v>132800.01999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -1497,10 +1596,10 @@
         <v>5109</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>2018</v>
@@ -1509,13 +1608,16 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J17">
         <v>1333698.83</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>5</v>
       </c>
@@ -1526,11 +1628,11 @@
         <v>5301</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F18">
         <v>2018</v>
       </c>
@@ -1538,13 +1640,16 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J18">
         <v>302649.02</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -1555,10 +1660,10 @@
         <v>5304</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F19">
         <v>2018</v>
@@ -1567,13 +1672,16 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J19">
         <v>71561.69</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -1584,10 +1692,10 @@
         <v>5501</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F20">
         <v>2018</v>
@@ -1596,13 +1704,16 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J20">
         <v>240668.13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -1613,10 +1724,10 @@
         <v>5502</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>2018</v>
@@ -1625,13 +1736,16 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J21">
         <v>174934.58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -1642,10 +1756,10 @@
         <v>5503</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>2018</v>
@@ -1654,13 +1768,16 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J22">
         <v>66286.19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -1671,10 +1788,10 @@
         <v>5504</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>2018</v>
@@ -1683,13 +1800,16 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J23">
         <v>32707.63</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -1700,10 +1820,10 @@
         <v>5601</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F24">
         <v>2018</v>
@@ -1712,13 +1832,16 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J24">
         <v>537550.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -1729,10 +1852,10 @@
         <v>5603</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F25">
         <v>2018</v>
@@ -1741,13 +1864,16 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J25">
         <v>49842.95</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -1758,10 +1884,10 @@
         <v>5606</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>2018</v>
@@ -1770,13 +1896,16 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J26">
         <v>84916.04</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -1787,10 +1916,10 @@
         <v>5701</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -1799,13 +1928,16 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J27">
         <v>274427.13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -1816,10 +1948,10 @@
         <v>5801</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F28">
         <v>2018</v>
@@ -1828,13 +1960,16 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J28">
         <v>280696.98</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -1845,10 +1980,10 @@
         <v>5802</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F29">
         <v>2018</v>
@@ -1857,13 +1992,16 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J29">
         <v>111154.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>5</v>
       </c>
@@ -1874,10 +2012,10 @@
         <v>5803</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F30">
         <v>2018</v>
@@ -1886,13 +2024,16 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J30">
         <v>16297.62</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -1903,10 +2044,10 @@
         <v>5804</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -1915,13 +2056,16 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J31">
         <v>246159</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>6</v>
       </c>
@@ -1932,10 +2076,10 @@
         <v>6101</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F32">
         <v>2018</v>
@@ -1944,13 +2088,16 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J32">
         <v>1983067.59</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>6</v>
       </c>
@@ -1961,10 +2108,10 @@
         <v>6108</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -1973,13 +2120,16 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J33">
         <v>701035.62</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>6</v>
       </c>
@@ -1990,10 +2140,10 @@
         <v>6115</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F34">
         <v>2018</v>
@@ -2002,13 +2152,16 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J34">
         <v>317878.37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>6</v>
       </c>
@@ -2019,10 +2172,10 @@
         <v>6301</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -2031,13 +2184,16 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J35">
         <v>400382.68</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>7</v>
       </c>
@@ -2048,10 +2204,10 @@
         <v>7101</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>2018</v>
@@ -2060,13 +2216,16 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J36">
         <v>1502047.96</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>7</v>
       </c>
@@ -2077,10 +2236,10 @@
         <v>7102</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>2018</v>
@@ -2089,13 +2248,16 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J37">
         <v>168864.84</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>7</v>
       </c>
@@ -2106,10 +2268,10 @@
         <v>7105</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F38">
         <v>2018</v>
@@ -2118,13 +2280,16 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J38">
         <v>217214.32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="4">
         <v>7</v>
       </c>
@@ -2135,10 +2300,10 @@
         <v>7301</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F39">
         <v>2018</v>
@@ -2147,13 +2312,16 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J39">
         <v>1082884.8500000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="4">
         <v>7</v>
       </c>
@@ -2164,10 +2332,10 @@
         <v>7305</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F40">
         <v>2018</v>
@@ -2176,13 +2344,16 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J40">
         <v>27624.91</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -2193,10 +2364,10 @@
         <v>7306</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F41">
         <v>2018</v>
@@ -2205,13 +2376,16 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J41">
         <v>68654.73</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
         <v>7</v>
       </c>
@@ -2222,10 +2396,10 @@
         <v>7401</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F42">
         <v>2018</v>
@@ -2234,13 +2408,16 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J42">
         <v>327144.90999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="4">
         <v>8</v>
       </c>
@@ -2251,10 +2428,10 @@
         <v>8101</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F43">
         <v>2018</v>
@@ -2263,13 +2440,16 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J43">
         <v>1900908.03</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="4">
         <v>8</v>
       </c>
@@ -2280,10 +2460,10 @@
         <v>8102</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>2018</v>
@@ -2292,13 +2472,16 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J44">
         <v>466878.89</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -2309,10 +2492,10 @@
         <v>8103</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <v>2018</v>
@@ -2321,13 +2504,16 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J45">
         <v>265294.52</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -2338,10 +2524,10 @@
         <v>8105</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F46">
         <v>2018</v>
@@ -2350,13 +2536,16 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J46">
         <v>52626.49</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -2367,10 +2556,10 @@
         <v>8106</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F47">
         <v>2018</v>
@@ -2379,13 +2568,16 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J47">
         <v>231206.66</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="4">
         <v>8</v>
       </c>
@@ -2396,10 +2588,10 @@
         <v>8107</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <v>2018</v>
@@ -2408,13 +2600,16 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J48">
         <v>120978.29</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="4">
         <v>8</v>
       </c>
@@ -2425,10 +2620,10 @@
         <v>8108</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F49">
         <v>2018</v>
@@ -2437,13 +2632,16 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J49">
         <v>986381.23</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="4">
         <v>8</v>
       </c>
@@ -2454,11 +2652,11 @@
         <v>8109</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F50">
         <v>2018</v>
       </c>
@@ -2466,13 +2664,16 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J50">
         <v>66994.679999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
         <v>8</v>
       </c>
@@ -2483,10 +2684,10 @@
         <v>8110</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F51">
         <v>2018</v>
@@ -2495,13 +2696,16 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J51">
         <v>637302.52</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="4">
         <v>8</v>
       </c>
@@ -2512,10 +2716,10 @@
         <v>8111</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F52">
         <v>2018</v>
@@ -2524,13 +2728,16 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J52">
         <v>100645.08</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
         <v>8</v>
       </c>
@@ -2541,10 +2748,10 @@
         <v>8112</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F53">
         <v>2018</v>
@@ -2553,13 +2760,16 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J53">
         <v>381067.67</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
         <v>8</v>
       </c>
@@ -2570,10 +2780,10 @@
         <v>8301</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F54">
         <v>2018</v>
@@ -2582,13 +2792,16 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J54">
         <v>803609.15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
         <v>8</v>
       </c>
@@ -2599,10 +2812,10 @@
         <v>8306</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F55">
         <v>2018</v>
@@ -2611,13 +2824,16 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J55">
         <v>117945.45</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="4">
         <v>9</v>
       </c>
@@ -2628,10 +2844,10 @@
         <v>9101</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F56">
         <v>2018</v>
@@ -2640,13 +2856,16 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J56">
         <v>2444565.79</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="4">
         <v>9</v>
       </c>
@@ -2657,10 +2876,10 @@
         <v>9112</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F57">
         <v>2018</v>
@@ -2669,13 +2888,16 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J57">
         <v>299772.59999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
         <v>9</v>
       </c>
@@ -2686,10 +2908,10 @@
         <v>9120</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F58">
         <v>2018</v>
@@ -2698,13 +2920,16 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J58">
         <v>454585.45</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="4">
         <v>9</v>
       </c>
@@ -2715,10 +2940,10 @@
         <v>9201</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <v>2018</v>
@@ -2727,13 +2952,16 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J59">
         <v>293523.21000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="4">
         <v>10</v>
       </c>
@@ -2744,10 +2972,10 @@
         <v>10101</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F60">
         <v>2018</v>
@@ -2756,13 +2984,16 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J60">
         <v>1730377.49</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="4">
         <v>10</v>
       </c>
@@ -2773,10 +3004,10 @@
         <v>10109</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F61">
         <v>2018</v>
@@ -2785,13 +3016,16 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J61">
         <v>346876.09</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="4">
         <v>10</v>
       </c>
@@ -2802,10 +3036,10 @@
         <v>10201</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F62">
         <v>2018</v>
@@ -2814,13 +3048,16 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J62">
         <v>306319.44</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
         <v>10</v>
       </c>
@@ -2831,10 +3068,10 @@
         <v>10301</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F63">
         <v>2018</v>
@@ -2843,13 +3080,16 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J63">
         <v>2270273.5699999998</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="4">
         <v>11</v>
       </c>
@@ -2860,10 +3100,10 @@
         <v>11101</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F64">
         <v>2018</v>
@@ -2872,13 +3112,16 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J64">
         <v>350452.47</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="4">
         <v>12</v>
       </c>
@@ -2889,10 +3132,10 @@
         <v>12101</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F65">
         <v>2018</v>
@@ -2901,13 +3144,16 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J65">
         <v>1371814.6</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="4">
         <v>13</v>
       </c>
@@ -2918,10 +3164,10 @@
         <v>13101</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F66">
         <v>2018</v>
@@ -2930,13 +3176,16 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J66">
         <v>1868007.66</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="4">
         <v>13</v>
       </c>
@@ -2947,10 +3196,10 @@
         <v>13102</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F67">
         <v>2018</v>
@@ -2959,13 +3208,16 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J67">
         <v>1176964.6499999999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="4">
         <v>13</v>
       </c>
@@ -2976,10 +3228,10 @@
         <v>13103</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F68">
         <v>2018</v>
@@ -2988,13 +3240,16 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J68">
         <v>786372.48</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="4">
         <v>13</v>
       </c>
@@ -3005,10 +3260,10 @@
         <v>13104</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F69">
         <v>2018</v>
@@ -3017,13 +3272,16 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J69">
         <v>417852</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="4">
         <v>13</v>
       </c>
@@ -3034,10 +3292,10 @@
         <v>13105</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F70">
         <v>2018</v>
@@ -3046,13 +3304,16 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J70">
         <v>329261.03999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="4">
         <v>13</v>
       </c>
@@ -3063,10 +3324,10 @@
         <v>13106</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F71">
         <v>2018</v>
@@ -3075,13 +3336,16 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J71">
         <v>533763.86</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="4">
         <v>13</v>
       </c>
@@ -3092,10 +3356,10 @@
         <v>13107</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F72">
         <v>2018</v>
@@ -3104,13 +3368,16 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J72">
         <v>1061523.43</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="4">
         <v>13</v>
       </c>
@@ -3121,10 +3388,10 @@
         <v>13108</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F73">
         <v>2018</v>
@@ -3133,13 +3400,16 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J73">
         <v>155440.97</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="4">
         <v>13</v>
       </c>
@@ -3150,10 +3420,10 @@
         <v>13109</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F74">
         <v>2018</v>
@@ -3162,13 +3432,16 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J74">
         <v>160366.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="4">
         <v>13</v>
       </c>
@@ -3179,10 +3452,10 @@
         <v>13110</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F75">
         <v>2018</v>
@@ -3191,13 +3464,16 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J75">
         <v>1375949.93</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="4">
         <v>13</v>
       </c>
@@ -3208,10 +3484,10 @@
         <v>13111</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F76">
         <v>2018</v>
@@ -3220,13 +3496,16 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J76">
         <v>848111.12</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="4">
         <v>13</v>
       </c>
@@ -3237,10 +3516,10 @@
         <v>13112</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F77">
         <v>2018</v>
@@ -3249,13 +3528,16 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J77">
         <v>611122.67000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="4">
         <v>13</v>
       </c>
@@ -3266,10 +3548,10 @@
         <v>13113</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F78">
         <v>2018</v>
@@ -3278,13 +3560,16 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J78">
         <v>1296980.73</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="4">
         <v>13</v>
       </c>
@@ -3295,10 +3580,10 @@
         <v>13114</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F79">
         <v>2018</v>
@@ -3307,13 +3592,16 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J79">
         <v>1432747.4</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="4">
         <v>13</v>
       </c>
@@ -3324,10 +3612,10 @@
         <v>13115</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F80">
         <v>2018</v>
@@ -3336,13 +3624,16 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J80">
         <v>1567804.34</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="4">
         <v>13</v>
       </c>
@@ -3353,10 +3644,10 @@
         <v>13116</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F81">
         <v>2018</v>
@@ -3365,13 +3656,16 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J81">
         <v>430503.44</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="4">
         <v>13</v>
       </c>
@@ -3382,10 +3676,10 @@
         <v>13117</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F82">
         <v>2018</v>
@@ -3394,13 +3688,16 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J82">
         <v>306691.98</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="4">
         <v>13</v>
       </c>
@@ -3411,10 +3708,10 @@
         <v>13118</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F83">
         <v>2018</v>
@@ -3423,13 +3720,16 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J83">
         <v>480763.06</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="4">
         <v>13</v>
       </c>
@@ -3440,10 +3740,10 @@
         <v>13119</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F84">
         <v>2018</v>
@@ -3452,13 +3752,16 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J84">
         <v>2847701.93</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -3469,10 +3772,10 @@
         <v>13120</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F85">
         <v>2018</v>
@@ -3481,13 +3784,16 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J85">
         <v>508452.16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="4">
         <v>13</v>
       </c>
@@ -3498,10 +3804,10 @@
         <v>13121</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F86">
         <v>2018</v>
@@ -3510,13 +3816,16 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J86">
         <v>530088.27</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="4">
         <v>13</v>
       </c>
@@ -3527,10 +3836,10 @@
         <v>13122</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F87">
         <v>2018</v>
@@ -3539,13 +3848,16 @@
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J87">
         <v>1367424.45</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="4">
         <v>13</v>
       </c>
@@ -3556,10 +3868,10 @@
         <v>13123</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F88">
         <v>2018</v>
@@ -3568,13 +3880,16 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J88">
         <v>2121068.62</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="4">
         <v>13</v>
       </c>
@@ -3585,10 +3900,10 @@
         <v>13124</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F89">
         <v>2018</v>
@@ -3597,13 +3912,16 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J89">
         <v>1048199.86</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="4">
         <v>13</v>
       </c>
@@ -3614,10 +3932,10 @@
         <v>13125</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F90">
         <v>2018</v>
@@ -3626,13 +3944,16 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J90">
         <v>844303.87</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="4">
         <v>13</v>
       </c>
@@ -3643,10 +3964,10 @@
         <v>13126</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F91">
         <v>2018</v>
@@ -3655,13 +3976,16 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J91">
         <v>398697.29</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="4">
         <v>13</v>
       </c>
@@ -3672,10 +3996,10 @@
         <v>13127</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F92">
         <v>2018</v>
@@ -3684,13 +4008,16 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J92">
         <v>2927155.99</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="4">
         <v>13</v>
       </c>
@@ -3701,10 +4028,10 @@
         <v>13128</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F93">
         <v>2018</v>
@@ -3713,13 +4040,16 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J93">
         <v>672938.41</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="4">
         <v>13</v>
       </c>
@@ -3730,10 +4060,10 @@
         <v>13129</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F94">
         <v>2018</v>
@@ -3742,13 +4072,16 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J94">
         <v>462653.8</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="4">
         <v>13</v>
       </c>
@@ -3759,10 +4092,10 @@
         <v>13130</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F95">
         <v>2018</v>
@@ -3771,13 +4104,16 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J95">
         <v>212503.55</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="4">
         <v>13</v>
       </c>
@@ -3788,10 +4124,10 @@
         <v>13131</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F96">
         <v>2018</v>
@@ -3800,13 +4136,16 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J96">
         <v>382813.02</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="4">
         <v>13</v>
       </c>
@@ -3817,10 +4156,10 @@
         <v>13132</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F97">
         <v>2018</v>
@@ -3829,13 +4168,16 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J97">
         <v>1592903.19</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="4">
         <v>13</v>
       </c>
@@ -3846,10 +4188,10 @@
         <v>13201</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F98">
         <v>2018</v>
@@ -3858,13 +4200,16 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J98">
         <v>2492680.23</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="4">
         <v>13</v>
       </c>
@@ -3875,10 +4220,10 @@
         <v>13202</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F99">
         <v>2018</v>
@@ -3887,13 +4232,16 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J99">
         <v>27703.81</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="4">
         <v>13</v>
       </c>
@@ -3904,10 +4252,10 @@
         <v>13203</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F100">
         <v>2018</v>
@@ -3916,13 +4264,16 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J100">
         <v>43960.58</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="4">
         <v>13</v>
       </c>
@@ -3933,10 +4284,10 @@
         <v>13301</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F101">
         <v>2018</v>
@@ -3945,13 +4296,16 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J101">
         <v>1115239.6200000001</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="4">
         <v>13</v>
       </c>
@@ -3962,10 +4316,10 @@
         <v>13302</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F102">
         <v>2018</v>
@@ -3974,13 +4328,16 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J102">
         <v>555319.97</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="4">
         <v>13</v>
       </c>
@@ -3991,10 +4348,10 @@
         <v>13303</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F103">
         <v>2018</v>
@@ -4003,13 +4360,16 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J103">
         <v>78790.45</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="4">
         <v>13</v>
       </c>
@@ -4020,10 +4380,10 @@
         <v>13401</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F104">
         <v>2018</v>
@@ -4032,13 +4392,16 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J104">
         <v>1202249.04</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="4">
         <v>13</v>
       </c>
@@ -4049,10 +4412,10 @@
         <v>13402</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F105">
         <v>2018</v>
@@ -4061,13 +4424,16 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J105">
         <v>603984.88</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="4">
         <v>13</v>
       </c>
@@ -4078,10 +4444,10 @@
         <v>13403</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F106">
         <v>2018</v>
@@ -4090,13 +4456,16 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J106">
         <v>29946.03</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="4">
         <v>13</v>
       </c>
@@ -4107,10 +4476,10 @@
         <v>13404</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F107">
         <v>2018</v>
@@ -4119,13 +4488,16 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J107">
         <v>173383.58</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="4">
         <v>13</v>
       </c>
@@ -4136,10 +4508,10 @@
         <v>13501</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F108">
         <v>2018</v>
@@ -4148,13 +4520,16 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J108">
         <v>364751.95</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="4">
         <v>13</v>
       </c>
@@ -4165,10 +4540,10 @@
         <v>13601</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F109">
         <v>2018</v>
@@ -4177,13 +4552,16 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J109">
         <v>409053.02</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="4">
         <v>13</v>
       </c>
@@ -4194,10 +4572,10 @@
         <v>13602</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F110">
         <v>2018</v>
@@ -4206,13 +4584,16 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J110">
         <v>108909.92</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="4">
         <v>13</v>
       </c>
@@ -4223,10 +4604,10 @@
         <v>13603</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F111">
         <v>2018</v>
@@ -4235,13 +4616,16 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J111">
         <v>72272.67</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="4">
         <v>13</v>
       </c>
@@ -4252,10 +4636,10 @@
         <v>13604</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F112">
         <v>2018</v>
@@ -4264,13 +4648,16 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J112">
         <v>393787.75</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="4">
         <v>13</v>
       </c>
@@ -4281,10 +4668,10 @@
         <v>13605</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F113">
         <v>2018</v>
@@ -4293,13 +4680,16 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J113">
         <v>393977.81</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="4">
         <v>14</v>
       </c>
@@ -4310,10 +4700,10 @@
         <v>14101</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F114">
         <v>2018</v>
@@ -4322,13 +4712,16 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J114">
         <v>1721843.52</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="4">
         <v>15</v>
       </c>
@@ -4339,10 +4732,10 @@
         <v>15101</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F115">
         <v>2018</v>
@@ -4351,13 +4744,16 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J115">
         <v>762277.38</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="4">
         <v>16</v>
       </c>
@@ -4368,10 +4764,10 @@
         <v>16101</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F116">
         <v>2018</v>
@@ -4380,13 +4776,16 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J116">
         <v>968510.59</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="4">
         <v>16</v>
       </c>
@@ -4397,10 +4796,10 @@
         <v>16103</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F117">
         <v>2018</v>
@@ -4409,13 +4808,16 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J117">
         <v>137886.44</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="4">
         <v>16</v>
       </c>
@@ -4426,10 +4828,10 @@
         <v>16301</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F118">
         <v>2018</v>
@@ -4438,21 +4840,24 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J118">
         <v>253154.7</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F119">
         <v>2018</v>
@@ -4461,21 +4866,24 @@
         <v>2</v>
       </c>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J119">
         <v>2.13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F120">
         <v>2018</v>
@@ -4484,21 +4892,24 @@
         <v>2</v>
       </c>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J120">
         <v>3.29</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F121">
         <v>2018</v>
@@ -4507,21 +4918,24 @@
         <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J121">
         <v>2.31</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F122">
         <v>2018</v>
@@ -4530,21 +4944,24 @@
         <v>2</v>
       </c>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J122">
         <v>4.17</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F123">
         <v>2018</v>
@@ -4553,21 +4970,24 @@
         <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J123">
         <v>5.22</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F124">
         <v>2018</v>
@@ -4576,21 +4996,24 @@
         <v>2</v>
       </c>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J124">
         <v>10.25</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F125">
         <v>2018</v>
@@ -4599,21 +5022,24 @@
         <v>2</v>
       </c>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J125">
         <v>6.93</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F126">
         <v>2018</v>
@@ -4622,21 +5048,24 @@
         <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J126">
         <v>11.01</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F127">
         <v>2018</v>
@@ -4645,21 +5074,24 @@
         <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J127">
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F128">
         <v>2018</v>
@@ -4668,21 +5100,24 @@
         <v>2</v>
       </c>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J128">
         <v>4.91</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F129">
         <v>2018</v>
@@ -4691,21 +5126,24 @@
         <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J129">
         <v>1.25</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F130">
         <v>2018</v>
@@ -4714,21 +5152,24 @@
         <v>2</v>
       </c>
       <c r="H130" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J130">
         <v>3.38</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F131">
         <v>2018</v>
@@ -4737,21 +5178,24 @@
         <v>2</v>
       </c>
       <c r="H131" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J131">
         <v>11.98</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F132">
         <v>2018</v>
@@ -4760,21 +5204,24 @@
         <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J132">
         <v>3.66</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F133">
         <v>2018</v>
@@ -4783,21 +5230,24 @@
         <v>2</v>
       </c>
       <c r="H133" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J133">
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F134">
         <v>2018</v>
@@ -4806,22 +5256,25 @@
         <v>2</v>
       </c>
       <c r="H134" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J134">
         <v>4.01</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F135">
         <v>2018</v>
       </c>
@@ -4829,21 +5282,24 @@
         <v>2</v>
       </c>
       <c r="H135" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J135">
         <v>5.04</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F136">
         <v>2018</v>
@@ -4852,21 +5308,24 @@
         <v>2</v>
       </c>
       <c r="H136" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J136">
         <v>6.3</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F137">
         <v>2018</v>
@@ -4875,21 +5334,24 @@
         <v>2</v>
       </c>
       <c r="H137" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J137">
         <v>3.11</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F138">
         <v>2018</v>
@@ -4898,21 +5360,24 @@
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J138">
         <v>3.6</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F139">
         <v>2018</v>
@@ -4921,21 +5386,24 @@
         <v>2</v>
       </c>
       <c r="H139" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J139">
         <v>5.65</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F140">
         <v>2018</v>
@@ -4944,21 +5412,24 @@
         <v>2</v>
       </c>
       <c r="H140" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J140">
         <v>1.69</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F141">
         <v>2018</v>
@@ -4967,21 +5438,24 @@
         <v>2</v>
       </c>
       <c r="H141" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J141">
         <v>6.23</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F142">
         <v>2018</v>
@@ -4990,21 +5464,24 @@
         <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J142">
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F143">
         <v>2018</v>
@@ -5013,21 +5490,24 @@
         <v>2</v>
       </c>
       <c r="H143" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J143">
         <v>13.81</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F144">
         <v>2018</v>
@@ -5036,21 +5516,24 @@
         <v>2</v>
       </c>
       <c r="H144" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J144">
         <v>3.96</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F145">
         <v>2018</v>
@@ -5059,21 +5542,24 @@
         <v>2</v>
       </c>
       <c r="H145" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J145">
         <v>1.9</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F146">
         <v>2018</v>
@@ -5082,21 +5568,24 @@
         <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J146">
         <v>2.85</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F147">
         <v>2018</v>
@@ -5105,21 +5594,24 @@
         <v>2</v>
       </c>
       <c r="H147" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J147">
         <v>1.36</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F148">
         <v>2018</v>
@@ -5128,21 +5620,24 @@
         <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J148">
         <v>1.97</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F149">
         <v>2018</v>
@@ -5151,21 +5646,24 @@
         <v>2</v>
       </c>
       <c r="H149" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J149">
         <v>8.49</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F150">
         <v>2018</v>
@@ -5174,21 +5672,24 @@
         <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J150">
         <v>13.69</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F151">
         <v>2018</v>
@@ -5197,21 +5698,24 @@
         <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J151">
         <v>6.96</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F152">
         <v>2018</v>
@@ -5220,21 +5724,24 @@
         <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J152">
         <v>6.31</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F153">
         <v>2018</v>
@@ -5243,21 +5750,24 @@
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J153">
         <v>7.15</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F154">
         <v>2018</v>
@@ -5266,21 +5776,24 @@
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J154">
         <v>4.54</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F155">
         <v>2018</v>
@@ -5289,21 +5802,24 @@
         <v>2</v>
       </c>
       <c r="H155" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J155">
         <v>5.6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F156">
         <v>2018</v>
@@ -5312,21 +5828,24 @@
         <v>2</v>
       </c>
       <c r="H156" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J156">
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F157">
         <v>2018</v>
@@ -5335,21 +5854,24 @@
         <v>2</v>
       </c>
       <c r="H157" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J157">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F158">
         <v>2018</v>
@@ -5358,21 +5880,24 @@
         <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J158">
         <v>10.59</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F159">
         <v>2018</v>
@@ -5381,21 +5906,24 @@
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J159">
         <v>4.24</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F160">
         <v>2018</v>
@@ -5404,21 +5932,24 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J160">
         <v>8.74</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F161">
         <v>2018</v>
@@ -5427,21 +5958,24 @@
         <v>2</v>
       </c>
       <c r="H161" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J161">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F162">
         <v>2018</v>
@@ -5450,21 +5984,24 @@
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J162">
         <v>3.1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F163">
         <v>2018</v>
@@ -5473,21 +6010,24 @@
         <v>2</v>
       </c>
       <c r="H163" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J163">
         <v>2.52</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F164">
         <v>2018</v>
@@ -5496,21 +6036,24 @@
         <v>2</v>
       </c>
       <c r="H164" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J164">
         <v>5.34</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F165">
         <v>2018</v>
@@ -5519,21 +6062,24 @@
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J165">
         <v>2.61</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F166">
         <v>2018</v>
@@ -5542,22 +6088,25 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J166">
         <v>7.5</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F167">
         <v>2018</v>
       </c>
@@ -5565,21 +6114,24 @@
         <v>2</v>
       </c>
       <c r="H167" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J167">
         <v>7.02</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F168">
         <v>2018</v>
@@ -5588,21 +6140,24 @@
         <v>2</v>
       </c>
       <c r="H168" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J168">
         <v>4.26</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F169">
         <v>2018</v>
@@ -5611,21 +6166,24 @@
         <v>2</v>
       </c>
       <c r="H169" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J169">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F170">
         <v>2018</v>
@@ -5634,21 +6192,24 @@
         <v>2</v>
       </c>
       <c r="H170" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J170">
         <v>4.2</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F171">
         <v>2018</v>
@@ -5657,21 +6218,24 @@
         <v>2</v>
       </c>
       <c r="H171" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J171">
         <v>5.34</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F172">
         <v>2018</v>
@@ -5680,21 +6244,24 @@
         <v>2</v>
       </c>
       <c r="H172" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J172">
         <v>5.16</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F173">
         <v>2018</v>
@@ -5703,21 +6270,24 @@
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J173">
         <v>9.36</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F174">
         <v>2018</v>
@@ -5726,21 +6296,24 @@
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I174" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J174">
         <v>6.61</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F175">
         <v>2018</v>
@@ -5749,21 +6322,24 @@
         <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J175">
         <v>12.61</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F176">
         <v>2018</v>
@@ -5772,21 +6348,24 @@
         <v>2</v>
       </c>
       <c r="H176" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J176">
         <v>6.04</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F177">
         <v>2018</v>
@@ -5795,21 +6374,24 @@
         <v>2</v>
       </c>
       <c r="H177" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J177">
         <v>7.92</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F178">
         <v>2018</v>
@@ -5818,21 +6400,24 @@
         <v>2</v>
       </c>
       <c r="H178" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J178">
         <v>10.8</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F179">
         <v>2018</v>
@@ -5841,21 +6426,24 @@
         <v>2</v>
       </c>
       <c r="H179" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J179">
         <v>9.17</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F180">
         <v>2018</v>
@@ -5864,21 +6452,24 @@
         <v>2</v>
       </c>
       <c r="H180" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I180" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J180">
         <v>15.37</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F181">
         <v>2018</v>
@@ -5887,21 +6478,24 @@
         <v>2</v>
       </c>
       <c r="H181" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J181">
         <v>7.06</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F182">
         <v>2018</v>
@@ -5910,21 +6504,24 @@
         <v>2</v>
       </c>
       <c r="H182" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I182" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J182">
         <v>11.12</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F183">
         <v>2018</v>
@@ -5933,21 +6530,24 @@
         <v>2</v>
       </c>
       <c r="H183" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J183">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F184">
         <v>2018</v>
@@ -5956,21 +6556,24 @@
         <v>2</v>
       </c>
       <c r="H184" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J184">
         <v>14.58</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F185">
         <v>2018</v>
@@ -5979,21 +6582,24 @@
         <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J185">
         <v>5.94</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F186">
         <v>2018</v>
@@ -6002,21 +6608,24 @@
         <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I186" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J186">
         <v>3.3</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F187">
         <v>2018</v>
@@ -6025,21 +6634,24 @@
         <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J187">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F188">
         <v>2018</v>
@@ -6048,21 +6660,24 @@
         <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I188" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J188">
         <v>3.79</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F189">
         <v>2018</v>
@@ -6071,21 +6686,24 @@
         <v>2</v>
       </c>
       <c r="H189" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J189">
         <v>10.78</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F190">
         <v>2018</v>
@@ -6094,21 +6712,24 @@
         <v>2</v>
       </c>
       <c r="H190" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I190" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J190">
         <v>1.55</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F191">
         <v>2018</v>
@@ -6117,21 +6738,24 @@
         <v>2</v>
       </c>
       <c r="H191" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J191">
         <v>1.78</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F192">
         <v>2018</v>
@@ -6140,21 +6764,24 @@
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I192" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J192">
         <v>3.76</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F193">
         <v>2018</v>
@@ -6163,21 +6790,24 @@
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J193">
         <v>7.29</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F194">
         <v>2018</v>
@@ -6186,21 +6816,24 @@
         <v>2</v>
       </c>
       <c r="H194" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I194" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J194">
         <v>3.47</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F195">
         <v>2018</v>
@@ -6209,21 +6842,24 @@
         <v>2</v>
       </c>
       <c r="H195" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J195">
         <v>13.99</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F196">
         <v>2018</v>
@@ -6232,21 +6868,24 @@
         <v>2</v>
       </c>
       <c r="H196" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I196" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J196">
         <v>4.87</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F197">
         <v>2018</v>
@@ -6255,21 +6894,24 @@
         <v>2</v>
       </c>
       <c r="H197" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J197">
         <v>15.21</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F198">
         <v>2018</v>
@@ -6278,21 +6920,24 @@
         <v>2</v>
       </c>
       <c r="H198" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I198" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J198">
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F199">
         <v>2018</v>
@@ -6301,21 +6946,24 @@
         <v>2</v>
       </c>
       <c r="H199" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J199">
         <v>3.2</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F200">
         <v>2018</v>
@@ -6324,21 +6972,24 @@
         <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I200" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J200">
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F201">
         <v>2018</v>
@@ -6347,21 +6998,24 @@
         <v>2</v>
       </c>
       <c r="H201" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J201">
         <v>5.5</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F202">
         <v>2018</v>
@@ -6370,21 +7024,24 @@
         <v>2</v>
       </c>
       <c r="H202" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I202" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J202">
         <v>2.44</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F203">
         <v>2018</v>
@@ -6393,21 +7050,24 @@
         <v>2</v>
       </c>
       <c r="H203" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J203">
         <v>5.25</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F204">
         <v>2018</v>
@@ -6416,21 +7076,24 @@
         <v>2</v>
       </c>
       <c r="H204" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I204" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J204">
         <v>5.66</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F205">
         <v>2018</v>
@@ -6439,21 +7102,24 @@
         <v>2</v>
       </c>
       <c r="H205" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J205">
         <v>14.94</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F206">
         <v>2018</v>
@@ -6462,21 +7128,24 @@
         <v>2</v>
       </c>
       <c r="H206" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I206" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J206">
         <v>4.71</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F207">
         <v>2018</v>
@@ -6485,21 +7154,24 @@
         <v>2</v>
       </c>
       <c r="H207" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I207" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J207">
         <v>4.03</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F208">
         <v>2018</v>
@@ -6508,21 +7180,24 @@
         <v>2</v>
       </c>
       <c r="H208" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I208" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J208">
         <v>3.63</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F209">
         <v>2018</v>
@@ -6531,21 +7206,24 @@
         <v>2</v>
       </c>
       <c r="H209" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I209" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J209">
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F210">
         <v>2018</v>
@@ -6554,21 +7232,24 @@
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I210" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J210">
         <v>4.58</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F211">
         <v>2018</v>
@@ -6577,21 +7258,24 @@
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I211" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J211">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F212">
         <v>2018</v>
@@ -6600,21 +7284,24 @@
         <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I212" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J212">
         <v>1.97</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F213">
         <v>2018</v>
@@ -6623,21 +7310,24 @@
         <v>2</v>
       </c>
       <c r="H213" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I213" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J213">
         <v>4.63</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F214">
         <v>2018</v>
@@ -6646,21 +7336,24 @@
         <v>2</v>
       </c>
       <c r="H214" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I214" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J214">
         <v>18.670000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F215">
         <v>2018</v>
@@ -6669,21 +7362,24 @@
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I215" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J215">
         <v>4.41</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F216">
         <v>2018</v>
@@ -6692,21 +7388,24 @@
         <v>2</v>
       </c>
       <c r="H216" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I216" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J216">
         <v>2.41</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F217">
         <v>2018</v>
@@ -6715,21 +7414,24 @@
         <v>2</v>
       </c>
       <c r="H217" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J217">
         <v>3.96</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F218">
         <v>2018</v>
@@ -6738,21 +7440,24 @@
         <v>2</v>
       </c>
       <c r="H218" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I218" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J218">
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F219">
         <v>2018</v>
@@ -6761,21 +7466,24 @@
         <v>2</v>
       </c>
       <c r="H219" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J219">
         <v>6.88</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F220">
         <v>2018</v>
@@ -6784,21 +7492,24 @@
         <v>2</v>
       </c>
       <c r="H220" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I220" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J220">
         <v>6.03</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F221">
         <v>2018</v>
@@ -6807,21 +7518,24 @@
         <v>2</v>
       </c>
       <c r="H221" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I221" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J221">
         <v>4.07</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F222">
         <v>2018</v>
@@ -6830,21 +7544,24 @@
         <v>2</v>
       </c>
       <c r="H222" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I222" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J222">
         <v>7.34</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F223">
         <v>2018</v>
@@ -6853,21 +7570,24 @@
         <v>2</v>
       </c>
       <c r="H223" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J223">
         <v>2.61</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F224">
         <v>2018</v>
@@ -6876,21 +7596,24 @@
         <v>2</v>
       </c>
       <c r="H224" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I224" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J224">
         <v>3.74</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F225">
         <v>2018</v>
@@ -6899,21 +7622,24 @@
         <v>2</v>
       </c>
       <c r="H225" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I225" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J225">
         <v>4.33</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F226">
         <v>2018</v>
@@ -6922,21 +7648,24 @@
         <v>2</v>
       </c>
       <c r="H226" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I226" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J226">
         <v>6.94</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F227">
         <v>2018</v>
@@ -6945,21 +7674,24 @@
         <v>2</v>
       </c>
       <c r="H227" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I227" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J227">
         <v>3.63</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F228">
         <v>2018</v>
@@ -6968,21 +7700,24 @@
         <v>2</v>
       </c>
       <c r="H228" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I228" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J228">
         <v>2.69</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F229">
         <v>2018</v>
@@ -6991,21 +7726,24 @@
         <v>2</v>
       </c>
       <c r="H229" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J229">
         <v>7.17</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F230">
         <v>2018</v>
@@ -7014,21 +7752,24 @@
         <v>2</v>
       </c>
       <c r="H230" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I230" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J230">
         <v>4.75</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F231">
         <v>2018</v>
@@ -7037,21 +7778,24 @@
         <v>2</v>
       </c>
       <c r="H231" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I231" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J231">
         <v>11.18</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F232">
         <v>2018</v>
@@ -7060,21 +7804,24 @@
         <v>2</v>
       </c>
       <c r="H232" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I232" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J232">
         <v>3.75</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F233">
         <v>2018</v>
@@ -7083,21 +7830,24 @@
         <v>2</v>
       </c>
       <c r="H233" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J233">
         <v>5.75</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F234">
         <v>2018</v>
@@ -7106,21 +7856,24 @@
         <v>2</v>
       </c>
       <c r="H234" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I234" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J234">
         <v>5.04</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F235">
         <v>2018</v>
@@ -7129,7 +7882,10 @@
         <v>2</v>
       </c>
       <c r="H235" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J235">
         <v>7.65</v>
@@ -7145,62 +7901,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.6">
+      <c r="A12" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Vivienda/28.5.xlsx
+++ b/Vivienda/28.5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -484,7 +484,7 @@
     <t>http://siedu.ine.cl/descargar/INDICADORES.rar</t>
   </si>
   <si>
-    <t>Definicion</t>
+    <t>Defincion</t>
   </si>
   <si>
     <t>Este indicador mide la capacidad de carga de la oferta total de áreas verdes públicas (plazas y parques), determinando el acceso potencial de la población a la dotación de áreas verdes de una comuna. La capacidad de carga se mide como una relación entre las superficies de las plazas - parques, y la cantidad de habitantes de la comuna. Ello resulta en un indicador de metros cuadrados de áreas verdes públicas por habitante.</t>
@@ -536,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -575,37 +575,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,16 +772,6 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Link "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5212AA5-4994-4059-99F7-77B9C24DE78A}" name="Tabla2" displayName="Tabla2" ref="A11:A12" totalsRowShown="0">
-  <autoFilter ref="A11:A12" xr:uid="{4AE79C53-B896-4ECB-97ED-0B1362886EE5}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{73636A8C-7FF9-4368-A907-9C82E06A72C3}" name="Definicion"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1063,13 +1041,14 @@
   <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1098,7 +1077,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1130,7 +1109,7 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2">
@@ -1162,7 +1141,7 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J3">
@@ -1194,7 +1173,7 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J4">
@@ -1226,7 +1205,7 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J5">
@@ -1258,7 +1237,7 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J6">
@@ -1290,7 +1269,7 @@
       <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J7">
@@ -1322,7 +1301,7 @@
       <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J8">
@@ -1354,7 +1333,7 @@
       <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J9">
@@ -1386,7 +1365,7 @@
       <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J10">
@@ -1418,7 +1397,7 @@
       <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J11">
@@ -1450,7 +1429,7 @@
       <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J12">
@@ -1482,7 +1461,7 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J13">
@@ -1514,7 +1493,7 @@
       <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J14">
@@ -1546,7 +1525,7 @@
       <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J15">
@@ -1578,7 +1557,7 @@
       <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J16">
@@ -1610,7 +1589,7 @@
       <c r="H17" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J17">
@@ -1642,7 +1621,7 @@
       <c r="H18" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J18">
@@ -1674,7 +1653,7 @@
       <c r="H19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J19">
@@ -1706,7 +1685,7 @@
       <c r="H20" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J20">
@@ -1738,7 +1717,7 @@
       <c r="H21" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J21">
@@ -1770,7 +1749,7 @@
       <c r="H22" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J22">
@@ -1802,7 +1781,7 @@
       <c r="H23" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J23">
@@ -1834,7 +1813,7 @@
       <c r="H24" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J24">
@@ -1866,7 +1845,7 @@
       <c r="H25" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J25">
@@ -1898,7 +1877,7 @@
       <c r="H26" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J26">
@@ -1930,7 +1909,7 @@
       <c r="H27" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J27">
@@ -1962,7 +1941,7 @@
       <c r="H28" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J28">
@@ -1994,7 +1973,7 @@
       <c r="H29" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J29">
@@ -2026,7 +2005,7 @@
       <c r="H30" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J30">
@@ -2058,7 +2037,7 @@
       <c r="H31" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J31">
@@ -2090,7 +2069,7 @@
       <c r="H32" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J32">
@@ -2122,7 +2101,7 @@
       <c r="H33" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J33">
@@ -2154,7 +2133,7 @@
       <c r="H34" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J34">
@@ -2186,7 +2165,7 @@
       <c r="H35" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J35">
@@ -2218,7 +2197,7 @@
       <c r="H36" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J36">
@@ -2250,7 +2229,7 @@
       <c r="H37" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J37">
@@ -2282,7 +2261,7 @@
       <c r="H38" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J38">
@@ -2314,7 +2293,7 @@
       <c r="H39" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J39">
@@ -2346,7 +2325,7 @@
       <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J40">
@@ -2378,7 +2357,7 @@
       <c r="H41" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J41">
@@ -2410,7 +2389,7 @@
       <c r="H42" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J42">
@@ -2442,7 +2421,7 @@
       <c r="H43" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J43">
@@ -2474,7 +2453,7 @@
       <c r="H44" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J44">
@@ -2506,7 +2485,7 @@
       <c r="H45" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J45">
@@ -2538,7 +2517,7 @@
       <c r="H46" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J46">
@@ -2570,7 +2549,7 @@
       <c r="H47" t="s">
         <v>12</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J47">
@@ -2602,7 +2581,7 @@
       <c r="H48" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J48">
@@ -2634,7 +2613,7 @@
       <c r="H49" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J49">
@@ -2666,7 +2645,7 @@
       <c r="H50" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J50">
@@ -2698,7 +2677,7 @@
       <c r="H51" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J51">
@@ -2730,7 +2709,7 @@
       <c r="H52" t="s">
         <v>12</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J52">
@@ -2762,7 +2741,7 @@
       <c r="H53" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J53">
@@ -2794,7 +2773,7 @@
       <c r="H54" t="s">
         <v>12</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J54">
@@ -2826,7 +2805,7 @@
       <c r="H55" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J55">
@@ -2858,7 +2837,7 @@
       <c r="H56" t="s">
         <v>12</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J56">
@@ -2890,7 +2869,7 @@
       <c r="H57" t="s">
         <v>12</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J57">
@@ -2922,7 +2901,7 @@
       <c r="H58" t="s">
         <v>12</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J58">
@@ -2954,7 +2933,7 @@
       <c r="H59" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J59">
@@ -2986,7 +2965,7 @@
       <c r="H60" t="s">
         <v>12</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J60">
@@ -3018,7 +2997,7 @@
       <c r="H61" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J61">
@@ -3050,7 +3029,7 @@
       <c r="H62" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J62">
@@ -3082,7 +3061,7 @@
       <c r="H63" t="s">
         <v>12</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J63">
@@ -3114,7 +3093,7 @@
       <c r="H64" t="s">
         <v>12</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="I64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J64">
@@ -3146,7 +3125,7 @@
       <c r="H65" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="I65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J65">
@@ -3178,7 +3157,7 @@
       <c r="H66" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J66">
@@ -3210,7 +3189,7 @@
       <c r="H67" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J67">
@@ -3242,7 +3221,7 @@
       <c r="H68" t="s">
         <v>12</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J68">
@@ -3274,7 +3253,7 @@
       <c r="H69" t="s">
         <v>12</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J69">
@@ -3306,7 +3285,7 @@
       <c r="H70" t="s">
         <v>12</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I70" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J70">
@@ -3338,7 +3317,7 @@
       <c r="H71" t="s">
         <v>12</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J71">
@@ -3370,7 +3349,7 @@
       <c r="H72" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I72" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J72">
@@ -3402,7 +3381,7 @@
       <c r="H73" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J73">
@@ -3434,7 +3413,7 @@
       <c r="H74" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="8" t="s">
+      <c r="I74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J74">
@@ -3466,7 +3445,7 @@
       <c r="H75" t="s">
         <v>12</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J75">
@@ -3498,7 +3477,7 @@
       <c r="H76" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J76">
@@ -3530,7 +3509,7 @@
       <c r="H77" t="s">
         <v>12</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J77">
@@ -3562,7 +3541,7 @@
       <c r="H78" t="s">
         <v>12</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J78">
@@ -3594,7 +3573,7 @@
       <c r="H79" t="s">
         <v>12</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J79">
@@ -3626,7 +3605,7 @@
       <c r="H80" t="s">
         <v>12</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J80">
@@ -3658,7 +3637,7 @@
       <c r="H81" t="s">
         <v>12</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J81">
@@ -3690,7 +3669,7 @@
       <c r="H82" t="s">
         <v>12</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J82">
@@ -3722,7 +3701,7 @@
       <c r="H83" t="s">
         <v>12</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J83">
@@ -3754,7 +3733,7 @@
       <c r="H84" t="s">
         <v>12</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J84">
@@ -3786,7 +3765,7 @@
       <c r="H85" t="s">
         <v>12</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J85">
@@ -3818,7 +3797,7 @@
       <c r="H86" t="s">
         <v>12</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="I86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J86">
@@ -3850,7 +3829,7 @@
       <c r="H87" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J87">
@@ -3882,7 +3861,7 @@
       <c r="H88" t="s">
         <v>12</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J88">
@@ -3914,7 +3893,7 @@
       <c r="H89" t="s">
         <v>12</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J89">
@@ -3946,7 +3925,7 @@
       <c r="H90" t="s">
         <v>12</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J90">
@@ -3978,7 +3957,7 @@
       <c r="H91" t="s">
         <v>12</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J91">
@@ -4010,7 +3989,7 @@
       <c r="H92" t="s">
         <v>12</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="I92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J92">
@@ -4042,7 +4021,7 @@
       <c r="H93" t="s">
         <v>12</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J93">
@@ -4074,7 +4053,7 @@
       <c r="H94" t="s">
         <v>12</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J94">
@@ -4106,7 +4085,7 @@
       <c r="H95" t="s">
         <v>12</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J95">
@@ -4138,7 +4117,7 @@
       <c r="H96" t="s">
         <v>12</v>
       </c>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J96">
@@ -4170,7 +4149,7 @@
       <c r="H97" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J97">
@@ -4202,7 +4181,7 @@
       <c r="H98" t="s">
         <v>12</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J98">
@@ -4234,7 +4213,7 @@
       <c r="H99" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J99">
@@ -4266,7 +4245,7 @@
       <c r="H100" t="s">
         <v>12</v>
       </c>
-      <c r="I100" s="8" t="s">
+      <c r="I100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J100">
@@ -4298,7 +4277,7 @@
       <c r="H101" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J101">
@@ -4330,7 +4309,7 @@
       <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="8" t="s">
+      <c r="I102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J102">
@@ -4362,7 +4341,7 @@
       <c r="H103" t="s">
         <v>12</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="I103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J103">
@@ -4394,7 +4373,7 @@
       <c r="H104" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="8" t="s">
+      <c r="I104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J104">
@@ -4426,7 +4405,7 @@
       <c r="H105" t="s">
         <v>12</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="I105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J105">
@@ -4458,7 +4437,7 @@
       <c r="H106" t="s">
         <v>12</v>
       </c>
-      <c r="I106" s="8" t="s">
+      <c r="I106" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J106">
@@ -4490,7 +4469,7 @@
       <c r="H107" t="s">
         <v>12</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J107">
@@ -4522,7 +4501,7 @@
       <c r="H108" t="s">
         <v>12</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J108">
@@ -4554,7 +4533,7 @@
       <c r="H109" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="8" t="s">
+      <c r="I109" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J109">
@@ -4586,7 +4565,7 @@
       <c r="H110" t="s">
         <v>12</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="I110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J110">
@@ -4618,7 +4597,7 @@
       <c r="H111" t="s">
         <v>12</v>
       </c>
-      <c r="I111" s="8" t="s">
+      <c r="I111" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J111">
@@ -4650,7 +4629,7 @@
       <c r="H112" t="s">
         <v>12</v>
       </c>
-      <c r="I112" s="8" t="s">
+      <c r="I112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J112">
@@ -4682,7 +4661,7 @@
       <c r="H113" t="s">
         <v>12</v>
       </c>
-      <c r="I113" s="8" t="s">
+      <c r="I113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J113">
@@ -4714,7 +4693,7 @@
       <c r="H114" t="s">
         <v>12</v>
       </c>
-      <c r="I114" s="8" t="s">
+      <c r="I114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J114">
@@ -4746,7 +4725,7 @@
       <c r="H115" t="s">
         <v>12</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J115">
@@ -4778,7 +4757,7 @@
       <c r="H116" t="s">
         <v>12</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="I116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J116">
@@ -4810,7 +4789,7 @@
       <c r="H117" t="s">
         <v>12</v>
       </c>
-      <c r="I117" s="8" t="s">
+      <c r="I117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J117">
@@ -4842,7 +4821,7 @@
       <c r="H118" t="s">
         <v>12</v>
       </c>
-      <c r="I118" s="8" t="s">
+      <c r="I118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J118">
@@ -4868,7 +4847,7 @@
       <c r="H119" t="s">
         <v>140</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="I119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J119">
@@ -4894,7 +4873,7 @@
       <c r="H120" t="s">
         <v>140</v>
       </c>
-      <c r="I120" s="8" t="s">
+      <c r="I120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J120">
@@ -4920,7 +4899,7 @@
       <c r="H121" t="s">
         <v>140</v>
       </c>
-      <c r="I121" s="8" t="s">
+      <c r="I121" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J121">
@@ -4946,7 +4925,7 @@
       <c r="H122" t="s">
         <v>140</v>
       </c>
-      <c r="I122" s="8" t="s">
+      <c r="I122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J122">
@@ -4972,7 +4951,7 @@
       <c r="H123" t="s">
         <v>140</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="I123" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J123">
@@ -4998,7 +4977,7 @@
       <c r="H124" t="s">
         <v>140</v>
       </c>
-      <c r="I124" s="8" t="s">
+      <c r="I124" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J124">
@@ -5024,7 +5003,7 @@
       <c r="H125" t="s">
         <v>140</v>
       </c>
-      <c r="I125" s="8" t="s">
+      <c r="I125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J125">
@@ -5050,7 +5029,7 @@
       <c r="H126" t="s">
         <v>140</v>
       </c>
-      <c r="I126" s="8" t="s">
+      <c r="I126" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J126">
@@ -5076,7 +5055,7 @@
       <c r="H127" t="s">
         <v>140</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="I127" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J127">
@@ -5102,7 +5081,7 @@
       <c r="H128" t="s">
         <v>140</v>
       </c>
-      <c r="I128" s="8" t="s">
+      <c r="I128" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J128">
@@ -5128,7 +5107,7 @@
       <c r="H129" t="s">
         <v>140</v>
       </c>
-      <c r="I129" s="8" t="s">
+      <c r="I129" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J129">
@@ -5154,7 +5133,7 @@
       <c r="H130" t="s">
         <v>140</v>
       </c>
-      <c r="I130" s="8" t="s">
+      <c r="I130" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J130">
@@ -5180,7 +5159,7 @@
       <c r="H131" t="s">
         <v>140</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="I131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J131">
@@ -5206,7 +5185,7 @@
       <c r="H132" t="s">
         <v>140</v>
       </c>
-      <c r="I132" s="8" t="s">
+      <c r="I132" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J132">
@@ -5232,7 +5211,7 @@
       <c r="H133" t="s">
         <v>140</v>
       </c>
-      <c r="I133" s="8" t="s">
+      <c r="I133" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J133">
@@ -5258,7 +5237,7 @@
       <c r="H134" t="s">
         <v>140</v>
       </c>
-      <c r="I134" s="8" t="s">
+      <c r="I134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J134">
@@ -5284,7 +5263,7 @@
       <c r="H135" t="s">
         <v>140</v>
       </c>
-      <c r="I135" s="8" t="s">
+      <c r="I135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J135">
@@ -5310,7 +5289,7 @@
       <c r="H136" t="s">
         <v>140</v>
       </c>
-      <c r="I136" s="8" t="s">
+      <c r="I136" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J136">
@@ -5336,7 +5315,7 @@
       <c r="H137" t="s">
         <v>140</v>
       </c>
-      <c r="I137" s="8" t="s">
+      <c r="I137" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J137">
@@ -5362,7 +5341,7 @@
       <c r="H138" t="s">
         <v>140</v>
       </c>
-      <c r="I138" s="8" t="s">
+      <c r="I138" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J138">
@@ -5388,7 +5367,7 @@
       <c r="H139" t="s">
         <v>140</v>
       </c>
-      <c r="I139" s="8" t="s">
+      <c r="I139" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J139">
@@ -5414,7 +5393,7 @@
       <c r="H140" t="s">
         <v>140</v>
       </c>
-      <c r="I140" s="8" t="s">
+      <c r="I140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J140">
@@ -5440,7 +5419,7 @@
       <c r="H141" t="s">
         <v>140</v>
       </c>
-      <c r="I141" s="8" t="s">
+      <c r="I141" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J141">
@@ -5466,7 +5445,7 @@
       <c r="H142" t="s">
         <v>140</v>
       </c>
-      <c r="I142" s="8" t="s">
+      <c r="I142" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J142">
@@ -5492,7 +5471,7 @@
       <c r="H143" t="s">
         <v>140</v>
       </c>
-      <c r="I143" s="8" t="s">
+      <c r="I143" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J143">
@@ -5518,7 +5497,7 @@
       <c r="H144" t="s">
         <v>140</v>
       </c>
-      <c r="I144" s="8" t="s">
+      <c r="I144" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J144">
@@ -5544,7 +5523,7 @@
       <c r="H145" t="s">
         <v>140</v>
       </c>
-      <c r="I145" s="8" t="s">
+      <c r="I145" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J145">
@@ -5570,7 +5549,7 @@
       <c r="H146" t="s">
         <v>140</v>
       </c>
-      <c r="I146" s="8" t="s">
+      <c r="I146" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J146">
@@ -5596,7 +5575,7 @@
       <c r="H147" t="s">
         <v>140</v>
       </c>
-      <c r="I147" s="8" t="s">
+      <c r="I147" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J147">
@@ -5622,7 +5601,7 @@
       <c r="H148" t="s">
         <v>140</v>
       </c>
-      <c r="I148" s="8" t="s">
+      <c r="I148" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J148">
@@ -5648,7 +5627,7 @@
       <c r="H149" t="s">
         <v>140</v>
       </c>
-      <c r="I149" s="8" t="s">
+      <c r="I149" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J149">
@@ -5674,7 +5653,7 @@
       <c r="H150" t="s">
         <v>140</v>
       </c>
-      <c r="I150" s="8" t="s">
+      <c r="I150" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J150">
@@ -5700,7 +5679,7 @@
       <c r="H151" t="s">
         <v>140</v>
       </c>
-      <c r="I151" s="8" t="s">
+      <c r="I151" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J151">
@@ -5726,7 +5705,7 @@
       <c r="H152" t="s">
         <v>140</v>
       </c>
-      <c r="I152" s="8" t="s">
+      <c r="I152" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J152">
@@ -5752,7 +5731,7 @@
       <c r="H153" t="s">
         <v>140</v>
       </c>
-      <c r="I153" s="8" t="s">
+      <c r="I153" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J153">
@@ -5778,7 +5757,7 @@
       <c r="H154" t="s">
         <v>140</v>
       </c>
-      <c r="I154" s="8" t="s">
+      <c r="I154" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J154">
@@ -5804,7 +5783,7 @@
       <c r="H155" t="s">
         <v>140</v>
       </c>
-      <c r="I155" s="8" t="s">
+      <c r="I155" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J155">
@@ -5830,7 +5809,7 @@
       <c r="H156" t="s">
         <v>140</v>
       </c>
-      <c r="I156" s="8" t="s">
+      <c r="I156" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J156">
@@ -5856,7 +5835,7 @@
       <c r="H157" t="s">
         <v>140</v>
       </c>
-      <c r="I157" s="8" t="s">
+      <c r="I157" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J157">
@@ -5882,7 +5861,7 @@
       <c r="H158" t="s">
         <v>140</v>
       </c>
-      <c r="I158" s="8" t="s">
+      <c r="I158" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J158">
@@ -5908,7 +5887,7 @@
       <c r="H159" t="s">
         <v>140</v>
       </c>
-      <c r="I159" s="8" t="s">
+      <c r="I159" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J159">
@@ -5934,7 +5913,7 @@
       <c r="H160" t="s">
         <v>140</v>
       </c>
-      <c r="I160" s="8" t="s">
+      <c r="I160" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J160">
@@ -5960,7 +5939,7 @@
       <c r="H161" t="s">
         <v>140</v>
       </c>
-      <c r="I161" s="8" t="s">
+      <c r="I161" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J161">
@@ -5986,7 +5965,7 @@
       <c r="H162" t="s">
         <v>140</v>
       </c>
-      <c r="I162" s="8" t="s">
+      <c r="I162" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J162">
@@ -6012,7 +5991,7 @@
       <c r="H163" t="s">
         <v>140</v>
       </c>
-      <c r="I163" s="8" t="s">
+      <c r="I163" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J163">
@@ -6038,7 +6017,7 @@
       <c r="H164" t="s">
         <v>140</v>
       </c>
-      <c r="I164" s="8" t="s">
+      <c r="I164" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J164">
@@ -6064,7 +6043,7 @@
       <c r="H165" t="s">
         <v>140</v>
       </c>
-      <c r="I165" s="8" t="s">
+      <c r="I165" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J165">
@@ -6090,7 +6069,7 @@
       <c r="H166" t="s">
         <v>140</v>
       </c>
-      <c r="I166" s="8" t="s">
+      <c r="I166" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J166">
@@ -6116,7 +6095,7 @@
       <c r="H167" t="s">
         <v>140</v>
       </c>
-      <c r="I167" s="8" t="s">
+      <c r="I167" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J167">
@@ -6142,7 +6121,7 @@
       <c r="H168" t="s">
         <v>140</v>
       </c>
-      <c r="I168" s="8" t="s">
+      <c r="I168" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J168">
@@ -6168,7 +6147,7 @@
       <c r="H169" t="s">
         <v>140</v>
       </c>
-      <c r="I169" s="8" t="s">
+      <c r="I169" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J169">
@@ -6194,7 +6173,7 @@
       <c r="H170" t="s">
         <v>140</v>
       </c>
-      <c r="I170" s="8" t="s">
+      <c r="I170" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J170">
@@ -6220,7 +6199,7 @@
       <c r="H171" t="s">
         <v>140</v>
       </c>
-      <c r="I171" s="8" t="s">
+      <c r="I171" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J171">
@@ -6246,7 +6225,7 @@
       <c r="H172" t="s">
         <v>140</v>
       </c>
-      <c r="I172" s="8" t="s">
+      <c r="I172" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J172">
@@ -6272,7 +6251,7 @@
       <c r="H173" t="s">
         <v>140</v>
       </c>
-      <c r="I173" s="8" t="s">
+      <c r="I173" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J173">
@@ -6298,7 +6277,7 @@
       <c r="H174" t="s">
         <v>140</v>
       </c>
-      <c r="I174" s="8" t="s">
+      <c r="I174" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J174">
@@ -6324,7 +6303,7 @@
       <c r="H175" t="s">
         <v>140</v>
       </c>
-      <c r="I175" s="8" t="s">
+      <c r="I175" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J175">
@@ -6350,7 +6329,7 @@
       <c r="H176" t="s">
         <v>140</v>
       </c>
-      <c r="I176" s="8" t="s">
+      <c r="I176" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J176">
@@ -6376,7 +6355,7 @@
       <c r="H177" t="s">
         <v>140</v>
       </c>
-      <c r="I177" s="8" t="s">
+      <c r="I177" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J177">
@@ -6402,7 +6381,7 @@
       <c r="H178" t="s">
         <v>140</v>
       </c>
-      <c r="I178" s="8" t="s">
+      <c r="I178" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J178">
@@ -6428,7 +6407,7 @@
       <c r="H179" t="s">
         <v>140</v>
       </c>
-      <c r="I179" s="8" t="s">
+      <c r="I179" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J179">
@@ -6454,7 +6433,7 @@
       <c r="H180" t="s">
         <v>140</v>
       </c>
-      <c r="I180" s="8" t="s">
+      <c r="I180" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J180">
@@ -6480,7 +6459,7 @@
       <c r="H181" t="s">
         <v>140</v>
       </c>
-      <c r="I181" s="8" t="s">
+      <c r="I181" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J181">
@@ -6506,7 +6485,7 @@
       <c r="H182" t="s">
         <v>140</v>
       </c>
-      <c r="I182" s="8" t="s">
+      <c r="I182" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J182">
@@ -6532,7 +6511,7 @@
       <c r="H183" t="s">
         <v>140</v>
       </c>
-      <c r="I183" s="8" t="s">
+      <c r="I183" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J183">
@@ -6558,7 +6537,7 @@
       <c r="H184" t="s">
         <v>140</v>
       </c>
-      <c r="I184" s="8" t="s">
+      <c r="I184" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J184">
@@ -6584,7 +6563,7 @@
       <c r="H185" t="s">
         <v>140</v>
       </c>
-      <c r="I185" s="8" t="s">
+      <c r="I185" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J185">
@@ -6610,7 +6589,7 @@
       <c r="H186" t="s">
         <v>140</v>
       </c>
-      <c r="I186" s="8" t="s">
+      <c r="I186" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J186">
@@ -6636,7 +6615,7 @@
       <c r="H187" t="s">
         <v>140</v>
       </c>
-      <c r="I187" s="8" t="s">
+      <c r="I187" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J187">
@@ -6662,7 +6641,7 @@
       <c r="H188" t="s">
         <v>140</v>
       </c>
-      <c r="I188" s="8" t="s">
+      <c r="I188" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J188">
@@ -6688,7 +6667,7 @@
       <c r="H189" t="s">
         <v>140</v>
       </c>
-      <c r="I189" s="8" t="s">
+      <c r="I189" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J189">
@@ -6714,7 +6693,7 @@
       <c r="H190" t="s">
         <v>140</v>
       </c>
-      <c r="I190" s="8" t="s">
+      <c r="I190" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J190">
@@ -6740,7 +6719,7 @@
       <c r="H191" t="s">
         <v>140</v>
       </c>
-      <c r="I191" s="8" t="s">
+      <c r="I191" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J191">
@@ -6766,7 +6745,7 @@
       <c r="H192" t="s">
         <v>140</v>
       </c>
-      <c r="I192" s="8" t="s">
+      <c r="I192" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J192">
@@ -6792,7 +6771,7 @@
       <c r="H193" t="s">
         <v>140</v>
       </c>
-      <c r="I193" s="8" t="s">
+      <c r="I193" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J193">
@@ -6818,7 +6797,7 @@
       <c r="H194" t="s">
         <v>140</v>
       </c>
-      <c r="I194" s="8" t="s">
+      <c r="I194" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J194">
@@ -6844,7 +6823,7 @@
       <c r="H195" t="s">
         <v>140</v>
       </c>
-      <c r="I195" s="8" t="s">
+      <c r="I195" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J195">
@@ -6870,7 +6849,7 @@
       <c r="H196" t="s">
         <v>140</v>
       </c>
-      <c r="I196" s="8" t="s">
+      <c r="I196" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J196">
@@ -6896,7 +6875,7 @@
       <c r="H197" t="s">
         <v>140</v>
       </c>
-      <c r="I197" s="8" t="s">
+      <c r="I197" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J197">
@@ -6922,7 +6901,7 @@
       <c r="H198" t="s">
         <v>140</v>
       </c>
-      <c r="I198" s="8" t="s">
+      <c r="I198" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J198">
@@ -6948,7 +6927,7 @@
       <c r="H199" t="s">
         <v>140</v>
       </c>
-      <c r="I199" s="8" t="s">
+      <c r="I199" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J199">
@@ -6974,7 +6953,7 @@
       <c r="H200" t="s">
         <v>140</v>
       </c>
-      <c r="I200" s="8" t="s">
+      <c r="I200" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J200">
@@ -7000,7 +6979,7 @@
       <c r="H201" t="s">
         <v>140</v>
       </c>
-      <c r="I201" s="8" t="s">
+      <c r="I201" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J201">
@@ -7026,7 +7005,7 @@
       <c r="H202" t="s">
         <v>140</v>
       </c>
-      <c r="I202" s="8" t="s">
+      <c r="I202" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J202">
@@ -7052,7 +7031,7 @@
       <c r="H203" t="s">
         <v>140</v>
       </c>
-      <c r="I203" s="8" t="s">
+      <c r="I203" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J203">
@@ -7078,7 +7057,7 @@
       <c r="H204" t="s">
         <v>140</v>
       </c>
-      <c r="I204" s="8" t="s">
+      <c r="I204" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J204">
@@ -7104,7 +7083,7 @@
       <c r="H205" t="s">
         <v>140</v>
       </c>
-      <c r="I205" s="8" t="s">
+      <c r="I205" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J205">
@@ -7130,7 +7109,7 @@
       <c r="H206" t="s">
         <v>140</v>
       </c>
-      <c r="I206" s="8" t="s">
+      <c r="I206" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J206">
@@ -7156,7 +7135,7 @@
       <c r="H207" t="s">
         <v>140</v>
       </c>
-      <c r="I207" s="8" t="s">
+      <c r="I207" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J207">
@@ -7182,7 +7161,7 @@
       <c r="H208" t="s">
         <v>140</v>
       </c>
-      <c r="I208" s="8" t="s">
+      <c r="I208" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J208">
@@ -7208,7 +7187,7 @@
       <c r="H209" t="s">
         <v>140</v>
       </c>
-      <c r="I209" s="8" t="s">
+      <c r="I209" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J209">
@@ -7234,7 +7213,7 @@
       <c r="H210" t="s">
         <v>140</v>
       </c>
-      <c r="I210" s="8" t="s">
+      <c r="I210" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J210">
@@ -7260,7 +7239,7 @@
       <c r="H211" t="s">
         <v>140</v>
       </c>
-      <c r="I211" s="8" t="s">
+      <c r="I211" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J211">
@@ -7286,7 +7265,7 @@
       <c r="H212" t="s">
         <v>140</v>
       </c>
-      <c r="I212" s="8" t="s">
+      <c r="I212" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J212">
@@ -7312,7 +7291,7 @@
       <c r="H213" t="s">
         <v>140</v>
       </c>
-      <c r="I213" s="8" t="s">
+      <c r="I213" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J213">
@@ -7338,7 +7317,7 @@
       <c r="H214" t="s">
         <v>140</v>
       </c>
-      <c r="I214" s="8" t="s">
+      <c r="I214" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J214">
@@ -7364,7 +7343,7 @@
       <c r="H215" t="s">
         <v>140</v>
       </c>
-      <c r="I215" s="8" t="s">
+      <c r="I215" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J215">
@@ -7390,7 +7369,7 @@
       <c r="H216" t="s">
         <v>140</v>
       </c>
-      <c r="I216" s="8" t="s">
+      <c r="I216" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J216">
@@ -7416,7 +7395,7 @@
       <c r="H217" t="s">
         <v>140</v>
       </c>
-      <c r="I217" s="8" t="s">
+      <c r="I217" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J217">
@@ -7442,7 +7421,7 @@
       <c r="H218" t="s">
         <v>140</v>
       </c>
-      <c r="I218" s="8" t="s">
+      <c r="I218" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J218">
@@ -7468,7 +7447,7 @@
       <c r="H219" t="s">
         <v>140</v>
       </c>
-      <c r="I219" s="8" t="s">
+      <c r="I219" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J219">
@@ -7494,7 +7473,7 @@
       <c r="H220" t="s">
         <v>140</v>
       </c>
-      <c r="I220" s="8" t="s">
+      <c r="I220" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J220">
@@ -7520,7 +7499,7 @@
       <c r="H221" t="s">
         <v>140</v>
       </c>
-      <c r="I221" s="8" t="s">
+      <c r="I221" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J221">
@@ -7546,7 +7525,7 @@
       <c r="H222" t="s">
         <v>140</v>
       </c>
-      <c r="I222" s="8" t="s">
+      <c r="I222" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J222">
@@ -7572,7 +7551,7 @@
       <c r="H223" t="s">
         <v>140</v>
       </c>
-      <c r="I223" s="8" t="s">
+      <c r="I223" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J223">
@@ -7598,7 +7577,7 @@
       <c r="H224" t="s">
         <v>140</v>
       </c>
-      <c r="I224" s="8" t="s">
+      <c r="I224" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J224">
@@ -7624,7 +7603,7 @@
       <c r="H225" t="s">
         <v>140</v>
       </c>
-      <c r="I225" s="8" t="s">
+      <c r="I225" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J225">
@@ -7650,7 +7629,7 @@
       <c r="H226" t="s">
         <v>140</v>
       </c>
-      <c r="I226" s="8" t="s">
+      <c r="I226" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J226">
@@ -7676,7 +7655,7 @@
       <c r="H227" t="s">
         <v>140</v>
       </c>
-      <c r="I227" s="8" t="s">
+      <c r="I227" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J227">
@@ -7702,7 +7681,7 @@
       <c r="H228" t="s">
         <v>140</v>
       </c>
-      <c r="I228" s="8" t="s">
+      <c r="I228" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J228">
@@ -7728,7 +7707,7 @@
       <c r="H229" t="s">
         <v>140</v>
       </c>
-      <c r="I229" s="8" t="s">
+      <c r="I229" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J229">
@@ -7754,7 +7733,7 @@
       <c r="H230" t="s">
         <v>140</v>
       </c>
-      <c r="I230" s="8" t="s">
+      <c r="I230" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J230">
@@ -7780,7 +7759,7 @@
       <c r="H231" t="s">
         <v>140</v>
       </c>
-      <c r="I231" s="8" t="s">
+      <c r="I231" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J231">
@@ -7806,7 +7785,7 @@
       <c r="H232" t="s">
         <v>140</v>
       </c>
-      <c r="I232" s="8" t="s">
+      <c r="I232" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J232">
@@ -7832,7 +7811,7 @@
       <c r="H233" t="s">
         <v>140</v>
       </c>
-      <c r="I233" s="8" t="s">
+      <c r="I233" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J233">
@@ -7858,7 +7837,7 @@
       <c r="H234" t="s">
         <v>140</v>
       </c>
-      <c r="I234" s="8" t="s">
+      <c r="I234" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J234">
@@ -7884,7 +7863,7 @@
       <c r="H235" t="s">
         <v>140</v>
       </c>
-      <c r="I235" s="8" t="s">
+      <c r="I235" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J235">
@@ -7901,10 +7880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7913,7 +7892,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -7921,7 +7900,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -7929,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -7937,7 +7916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -7945,7 +7924,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -7953,22 +7932,25 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" ht="119.25" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.6">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>